--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -135,7 +135,7 @@
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>Medio verifica</t>
+          <t>Medios de verificación</t>
         </is>
       </c>
     </row>

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -183,6 +183,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
       <c r="K2" s="0" t="inlineStr">
         <is>
           <t>Area 2</t>
@@ -232,6 +237,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>aasdfdfgh</t>
+        </is>
+      </c>
       <c r="K3" s="0" t="inlineStr">
         <is>
           <t>Area 1 de la Dependencia Admin </t>
@@ -281,6 +291,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>aasdfdfgh</t>
+        </is>
+      </c>
       <c r="K4" s="0" t="inlineStr">
         <is>
           <t>Area 1 de la Dependencia Admin </t>
@@ -330,6 +345,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
       <c r="K5" s="0" t="inlineStr">
         <is>
           <t>Area 2 de la Dependencia Admin </t>
@@ -379,6 +399,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>Este es un supuesto</t>
+        </is>
+      </c>
       <c r="K6" s="0" t="inlineStr">
         <is>
           <t>Area 2</t>
@@ -428,6 +453,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
       <c r="K7" s="0" t="inlineStr">
         <is>
           <t>Area 2 de la Dependencia Admin </t>
@@ -451,30 +481,35 @@
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>Estrategia</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="E8" s="0">
-        <v>5990</v>
+        <v>5529</v>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Programa Presupuestario 3</t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>Optimizar la generación de recursos propios estatales </t>
         </is>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>Subasta pública electrónica</t>
         </is>
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto de la actividad Aprovechar los recursos propios</t>
         </is>
       </c>
       <c r="K8" s="0" t="inlineStr">
@@ -492,7 +527,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>Admin </t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C9" s="0">
@@ -500,25 +535,25 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Estrategia</t>
         </is>
       </c>
       <c r="E9" s="0">
-        <v>5995</v>
+        <v>5990</v>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Programa Presupuestario 101</t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>aaaa</t>
+          <t>aaa</t>
         </is>
       </c>
       <c r="I9" s="0" t="inlineStr">
@@ -526,9 +561,14 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>qqqq</t>
+        </is>
+      </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
-          <t>Area 1 de la Dependencia Admin </t>
+          <t>Area 1</t>
         </is>
       </c>
     </row>
@@ -553,31 +593,36 @@
         </is>
       </c>
       <c r="E10" s="0">
-        <v>5992</v>
+        <v>5995</v>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Programa Presupuestario 1</t>
         </is>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>ddd</t>
+          <t>aaa</t>
         </is>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>gg</t>
+          <t>aaaa</t>
         </is>
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>aaaaaa</t>
         </is>
       </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>Area 2 de la Dependencia Admin </t>
+          <t>Area 1 de la Dependencia Admin </t>
         </is>
       </c>
     </row>
@@ -590,7 +635,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Finanzas</t>
+          <t>Admin </t>
         </is>
       </c>
       <c r="C11" s="0">
@@ -602,21 +647,21 @@
         </is>
       </c>
       <c r="E11" s="0">
-        <v>5993</v>
+        <v>5992</v>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 4</t>
+          <t>Programa Presupuestario 12</t>
         </is>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>aaaaaa</t>
+          <t>ddd</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>gg</t>
         </is>
       </c>
       <c r="I11" s="0" t="inlineStr">
@@ -624,9 +669,14 @@
           <t>2</t>
         </is>
       </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>ggg</t>
+        </is>
+      </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>Area 1 de la Dependencia Secretaría de Finanzas</t>
+          <t>Area 2 de la Dependencia Admin </t>
         </is>
       </c>
     </row>
@@ -651,29 +701,88 @@
         </is>
       </c>
       <c r="E12" s="0">
+        <v>5993</v>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 4</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>aaaaaa</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst vv</t>
+        </is>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>Area 1 de la Dependencia Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E13" s="0">
         <v>5991</v>
       </c>
-      <c r="F12" s="0" t="inlineStr">
+      <c r="F13" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 7</t>
         </is>
       </c>
-      <c r="G12" s="0" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
         <is>
           <t>ggg</t>
         </is>
       </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K12" s="0" t="inlineStr">
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
         <is>
           <t>Area 2</t>
         </is>

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -193,6 +193,11 @@
           <t>Area 1</t>
         </is>
       </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="inlineStr">
@@ -247,6 +252,11 @@
           <t>Area 1</t>
         </is>
       </c>
+      <c r="L3" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="inlineStr">
@@ -301,6 +311,11 @@
           <t>Area 1</t>
         </is>
       </c>
+      <c r="L4" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="inlineStr">
@@ -355,6 +370,11 @@
           <t>Area 1</t>
         </is>
       </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="inlineStr">
@@ -409,6 +429,11 @@
           <t>Area 1</t>
         </is>
       </c>
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="inlineStr">
@@ -463,6 +488,11 @@
           <t>Area 1</t>
         </is>
       </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="inlineStr">
@@ -517,6 +547,11 @@
           <t>Area 1</t>
         </is>
       </c>
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="inlineStr">
@@ -571,6 +606,11 @@
           <t>Area 1</t>
         </is>
       </c>
+      <c r="L9" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="inlineStr">
@@ -625,6 +665,11 @@
           <t>Area 1</t>
         </is>
       </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="inlineStr">
@@ -679,6 +724,11 @@
           <t>Area 2</t>
         </is>
       </c>
+      <c r="L11" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1</t>
+        </is>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="inlineStr">
@@ -733,6 +783,16 @@
           <t>Area 1 de la Dependencia Admin </t>
         </is>
       </c>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="inlineStr">
+        <is>
+          <t>adada</t>
+        </is>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2" t="inlineStr">
@@ -787,6 +847,16 @@
           <t>Area 1 de la Dependencia Admin </t>
         </is>
       </c>
+      <c r="L13" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 2</t>
+        </is>
+      </c>
+      <c r="M13" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2" t="inlineStr">
@@ -841,6 +911,16 @@
           <t>Area 2 de la Dependencia Admin </t>
         </is>
       </c>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2" t="inlineStr">
@@ -895,6 +975,16 @@
           <t>Area 2</t>
         </is>
       </c>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="inlineStr">
@@ -949,6 +1039,16 @@
           <t>Area 2 de la Dependencia Admin </t>
         </is>
       </c>
+      <c r="L16" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1</t>
+        </is>
+      </c>
+      <c r="M16" s="0" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2" t="inlineStr">
@@ -1003,6 +1103,16 @@
           <t>Area 1</t>
         </is>
       </c>
+      <c r="L17" s="0" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
+        </is>
+      </c>
+      <c r="M17" s="0" t="inlineStr">
+        <is>
+          <t>Medio de verificacion test</t>
+        </is>
+      </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2" t="inlineStr">
@@ -1057,6 +1167,16 @@
           <t>Area 1</t>
         </is>
       </c>
+      <c r="L18" s="0" t="inlineStr">
+        <is>
+          <t>Indicador de prueba Mir 2</t>
+        </is>
+      </c>
+      <c r="M18" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2" t="inlineStr">
@@ -1109,6 +1229,16 @@
       <c r="K19" s="0" t="inlineStr">
         <is>
           <t>Area 1 de la Dependencia Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="L19" s="0" t="inlineStr">
+        <is>
+          <t>Indicador Prueba Reportes 001</t>
+        </is>
+      </c>
+      <c r="M19" s="0" t="inlineStr">
+        <is>
+          <t>Prueba Reportes 001</t>
         </is>
       </c>
     </row>

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -14,10 +14,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="45"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -33,7 +44,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -43,6 +54,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0070C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -57,10 +73,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -73,311 +91,118 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Organismo</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>REPORTE MIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Clasificación Programática</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Gasto de orden</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Fecha:</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>06-16-2022 08:14:08 pm</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
           <t>Eje</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>Dependencia</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Año</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>Nivel</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>Clave</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>Programa presupuestario</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>Objetivo del gobierno</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>Estrategia</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>Resumen</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>Supuestos</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>Area Responsable</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>Indicadores</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M5" s="3" t="inlineStr">
         <is>
           <t>Medios de verificación</t>
         </is>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C2" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="E2" s="0">
-        <v>5512</v>
-      </c>
-      <c r="F2" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 101</t>
-        </is>
-      </c>
-      <c r="G2" s="0" t="inlineStr">
-        <is>
-          <t>Crear un Gobierno moderno, seguro y cercano a la gente</t>
-        </is>
-      </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>Plan Querétaro Digital</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="inlineStr">
-        <is>
-          <t>{a´lemf{qwelmfq{ewlmf</t>
-        </is>
-      </c>
-      <c r="K2" s="0" t="inlineStr">
-        <is>
-          <t>Area 1</t>
-        </is>
-      </c>
-      <c r="L2" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C3" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="E3" s="0">
-        <v>5512</v>
-      </c>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 101</t>
-        </is>
-      </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>Crear un Gobierno moderno, seguro y cercano a la gente</t>
-        </is>
-      </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>Plan Querétaro Digital</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="inlineStr">
-        <is>
-          <t>{a´lemf{qwelmfq{ewlmf</t>
-        </is>
-      </c>
-      <c r="K3" s="0" t="inlineStr">
-        <is>
-          <t>Area 1</t>
-        </is>
-      </c>
-      <c r="L3" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C4" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="E4" s="0">
-        <v>5512</v>
-      </c>
-      <c r="F4" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 101</t>
-        </is>
-      </c>
-      <c r="G4" s="0" t="inlineStr">
-        <is>
-          <t>Crear un Gobierno moderno, seguro y cercano a la gente</t>
-        </is>
-      </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>Plan Querétaro Digital</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="inlineStr">
-        <is>
-          <t>{a´lemf{qwelmfq{ewlmf</t>
-        </is>
-      </c>
-      <c r="K4" s="0" t="inlineStr">
-        <is>
-          <t>Area 1</t>
-        </is>
-      </c>
-      <c r="L4" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C5" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="E5" s="0">
-        <v>5512</v>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 101</t>
-        </is>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t>Crear un Gobierno moderno, seguro y cercano a la gente</t>
-        </is>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>Plan Querétaro Digital</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="inlineStr">
-        <is>
-          <t>{a´lemf{qwelmfq{ewlmf</t>
-        </is>
-      </c>
-      <c r="K5" s="0" t="inlineStr">
-        <is>
-          <t>Area 1</t>
-        </is>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
-        </is>
-      </c>
-    </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>Gobierno Ciudadano
 </t>
@@ -436,7 +261,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>Gobierno Ciudadano
 </t>
@@ -495,7 +320,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Gobierno Ciudadano
 </t>
@@ -554,7 +379,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>Gobierno Ciudadano
 </t>
@@ -613,7 +438,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>Gobierno Ciudadano
 </t>
@@ -667,792 +492,1028 @@
       </c>
       <c r="L10" s="0" t="inlineStr">
         <is>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C11" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="E11" s="0">
+        <v>5512</v>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 101</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>Crear un Gobierno moderno, seguro y cercano a la gente</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>Plan Querétaro Digital</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>{a´lemf{qwelmfq{ewlmf</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>Area 1</t>
+        </is>
+      </c>
+      <c r="L11" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="E12" s="0">
+        <v>5512</v>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 101</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>Crear un Gobierno moderno, seguro y cercano a la gente</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>Plan Querétaro Digital</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>{a´lemf{qwelmfq{ewlmf</t>
+        </is>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>Area 1</t>
+        </is>
+      </c>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="E13" s="0">
+        <v>5512</v>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 101</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>Crear un Gobierno moderno, seguro y cercano a la gente</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>Plan Querétaro Digital</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>{a´lemf{qwelmfq{ewlmf</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>Area 1</t>
+        </is>
+      </c>
+      <c r="L13" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C14" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="E14" s="0">
+        <v>5512</v>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 101</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>Crear un Gobierno moderno, seguro y cercano a la gente</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>Plan Querétaro Digital</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>{a´lemf{qwelmfq{ewlmf</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>Area 1</t>
+        </is>
+      </c>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
           <t>Prueba</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C11" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
+    <row r="15" spans="1:13">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C15" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
         <is>
           <t>Propósito</t>
         </is>
       </c>
-      <c r="E11" s="0">
+      <c r="E15" s="0">
         <v>5989</v>
       </c>
-      <c r="F11" s="0" t="inlineStr">
+      <c r="F15" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 1</t>
         </is>
       </c>
-      <c r="G11" s="0" t="inlineStr">
+      <c r="G15" s="0" t="inlineStr">
         <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="H11" s="0" t="inlineStr">
+      <c r="H15" s="0" t="inlineStr">
         <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="inlineStr">
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
         <is>
           <t>aaaa</t>
         </is>
       </c>
-      <c r="K11" s="0" t="inlineStr">
+      <c r="K15" s="0" t="inlineStr">
         <is>
           <t>Area 2</t>
         </is>
       </c>
-      <c r="L11" s="0" t="inlineStr">
+      <c r="L15" s="0" t="inlineStr">
         <is>
           <t>Indicador 1</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
+    <row r="16" spans="1:13">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
         </is>
       </c>
-      <c r="C12" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
+      <c r="C16" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
         <is>
           <t>Propósito</t>
         </is>
       </c>
-      <c r="E12" s="0">
+      <c r="E16" s="0">
         <v>5994</v>
       </c>
-      <c r="F12" s="0" t="inlineStr">
+      <c r="F16" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 1</t>
         </is>
       </c>
-      <c r="G12" s="0" t="inlineStr">
+      <c r="G16" s="0" t="inlineStr">
         <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
+      <c r="H16" s="0" t="inlineStr">
         <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="inlineStr">
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
         <is>
           <t>aasdfdfgh</t>
         </is>
       </c>
-      <c r="K12" s="0" t="inlineStr">
+      <c r="K16" s="0" t="inlineStr">
         <is>
           <t>Area 1 de la Dependencia Admin </t>
         </is>
       </c>
-      <c r="L12" s="0" t="inlineStr">
+      <c r="L16" s="0" t="inlineStr">
         <is>
           <t>Indicador 1</t>
         </is>
       </c>
-      <c r="M12" s="0" t="inlineStr">
+      <c r="M16" s="0" t="inlineStr">
         <is>
           <t>adada</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
+    <row r="17" spans="1:13">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
         </is>
       </c>
-      <c r="C13" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
+      <c r="C17" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
         <is>
           <t>Propósito</t>
         </is>
       </c>
-      <c r="E13" s="0">
+      <c r="E17" s="0">
         <v>5994</v>
       </c>
-      <c r="F13" s="0" t="inlineStr">
+      <c r="F17" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 1</t>
         </is>
       </c>
-      <c r="G13" s="0" t="inlineStr">
+      <c r="G17" s="0" t="inlineStr">
         <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="H13" s="0" t="inlineStr">
+      <c r="H17" s="0" t="inlineStr">
         <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="inlineStr">
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
         <is>
           <t>aasdfdfgh</t>
         </is>
       </c>
-      <c r="K13" s="0" t="inlineStr">
+      <c r="K17" s="0" t="inlineStr">
         <is>
           <t>Area 1 de la Dependencia Admin </t>
         </is>
       </c>
-      <c r="L13" s="0" t="inlineStr">
+      <c r="L17" s="0" t="inlineStr">
         <is>
           <t>Indicador 2</t>
         </is>
       </c>
-      <c r="M13" s="0" t="inlineStr">
+      <c r="M17" s="0" t="inlineStr">
         <is>
           <t>aa</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
+    <row r="18" spans="1:13">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
         </is>
       </c>
-      <c r="C14" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
+      <c r="C18" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
         <is>
           <t>Propósito</t>
         </is>
       </c>
-      <c r="E14" s="0">
+      <c r="E18" s="0">
         <v>5996</v>
       </c>
-      <c r="F14" s="0" t="inlineStr">
+      <c r="F18" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 1</t>
         </is>
       </c>
-      <c r="G14" s="0" t="inlineStr">
+      <c r="G18" s="0" t="inlineStr">
         <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
+      <c r="H18" s="0" t="inlineStr">
         <is>
           <t>aa</t>
         </is>
       </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="inlineStr">
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
         <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="K14" s="0" t="inlineStr">
+      <c r="K18" s="0" t="inlineStr">
         <is>
           <t>Area 2 de la Dependencia Admin </t>
         </is>
       </c>
-      <c r="L14" s="0" t="inlineStr">
+      <c r="L18" s="0" t="inlineStr">
         <is>
           <t>Indicador 1</t>
         </is>
       </c>
-      <c r="M14" s="0" t="inlineStr">
+      <c r="M18" s="0" t="inlineStr">
         <is>
           <t>aaa</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C15" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D15" s="0" t="inlineStr">
+    <row r="19" spans="1:13">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C19" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
         <is>
           <t>Propósito</t>
         </is>
       </c>
-      <c r="E15" s="0">
+      <c r="E19" s="0">
         <v>5997</v>
       </c>
-      <c r="F15" s="0" t="inlineStr">
+      <c r="F19" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 5</t>
         </is>
       </c>
-      <c r="G15" s="0" t="inlineStr">
+      <c r="G19" s="0" t="inlineStr">
         <is>
           <t>aa</t>
         </is>
       </c>
-      <c r="H15" s="0" t="inlineStr">
+      <c r="H19" s="0" t="inlineStr">
         <is>
           <t>aa</t>
         </is>
       </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="inlineStr">
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
         <is>
           <t>Este es un supuesto</t>
         </is>
       </c>
-      <c r="K15" s="0" t="inlineStr">
+      <c r="K19" s="0" t="inlineStr">
         <is>
           <t>Area 2</t>
         </is>
       </c>
-      <c r="L15" s="0" t="inlineStr">
+      <c r="L19" s="0" t="inlineStr">
         <is>
           <t>Indicador 1</t>
         </is>
       </c>
-      <c r="M15" s="0" t="inlineStr">
+      <c r="M19" s="0" t="inlineStr">
         <is>
           <t>aa</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
+    <row r="20" spans="1:13">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
         </is>
       </c>
-      <c r="C16" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D16" s="0" t="inlineStr">
+      <c r="C20" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
         <is>
           <t>Propósito</t>
         </is>
       </c>
-      <c r="E16" s="0">
+      <c r="E20" s="0">
         <v>5998</v>
       </c>
-      <c r="F16" s="0" t="inlineStr">
+      <c r="F20" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 12</t>
         </is>
       </c>
-      <c r="G16" s="0" t="inlineStr">
+      <c r="G20" s="0" t="inlineStr">
         <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
+      <c r="H20" s="0" t="inlineStr">
         <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="I16" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J16" s="0" t="inlineStr">
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
         <is>
           <t>aa</t>
         </is>
       </c>
-      <c r="K16" s="0" t="inlineStr">
+      <c r="K20" s="0" t="inlineStr">
         <is>
           <t>Area 2 de la Dependencia Admin </t>
         </is>
       </c>
-      <c r="L16" s="0" t="inlineStr">
+      <c r="L20" s="0" t="inlineStr">
         <is>
           <t>Indicador 1</t>
         </is>
       </c>
-      <c r="M16" s="0" t="inlineStr">
+      <c r="M20" s="0" t="inlineStr">
         <is>
           <t>AAA</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C17" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D17" s="0" t="inlineStr">
+    <row r="21" spans="1:13">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C21" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
         <is>
           <t>Componente</t>
         </is>
       </c>
-      <c r="E17" s="0">
+      <c r="E21" s="0">
         <v>5529</v>
       </c>
-      <c r="F17" s="0" t="inlineStr">
+      <c r="F21" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 3</t>
         </is>
       </c>
-      <c r="G17" s="0" t="inlineStr">
+      <c r="G21" s="0" t="inlineStr">
         <is>
           <t>Optimizar la generación de recursos propios estatales </t>
         </is>
       </c>
-      <c r="H17" s="0" t="inlineStr">
+      <c r="H21" s="0" t="inlineStr">
         <is>
           <t>Subasta pública electrónica</t>
         </is>
       </c>
-      <c r="I17" s="0" t="inlineStr">
+      <c r="I21" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J17" s="0" t="inlineStr">
+      <c r="J21" s="0" t="inlineStr">
         <is>
           <t>Supuesto de la actividad Aprovechar los recursos propios</t>
         </is>
       </c>
-      <c r="K17" s="0" t="inlineStr">
+      <c r="K21" s="0" t="inlineStr">
         <is>
           <t>Area 1</t>
         </is>
       </c>
-      <c r="L17" s="0" t="inlineStr">
+      <c r="L21" s="0" t="inlineStr">
         <is>
           <t>Monto de los recursos subastados a través del Portal web público</t>
         </is>
       </c>
-      <c r="M17" s="0" t="inlineStr">
+      <c r="M21" s="0" t="inlineStr">
         <is>
           <t>Medio de verificacion test</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C18" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D18" s="0" t="inlineStr">
+    <row r="22" spans="1:13">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C22" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
         <is>
           <t>Estrategia</t>
         </is>
       </c>
-      <c r="E18" s="0">
+      <c r="E22" s="0">
         <v>5990</v>
       </c>
-      <c r="F18" s="0" t="inlineStr">
+      <c r="F22" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 101</t>
         </is>
       </c>
-      <c r="G18" s="0" t="inlineStr">
+      <c r="G22" s="0" t="inlineStr">
         <is>
           <t>aa</t>
         </is>
       </c>
-      <c r="H18" s="0" t="inlineStr">
+      <c r="H22" s="0" t="inlineStr">
         <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="I18" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J18" s="0" t="inlineStr">
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
         <is>
           <t>qqqq</t>
         </is>
       </c>
-      <c r="K18" s="0" t="inlineStr">
+      <c r="K22" s="0" t="inlineStr">
         <is>
           <t>Area 1</t>
         </is>
       </c>
-      <c r="L18" s="0" t="inlineStr">
+      <c r="L22" s="0" t="inlineStr">
         <is>
           <t>Indicador de prueba Mir 2</t>
         </is>
       </c>
-      <c r="M18" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C19" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D19" s="0" t="inlineStr">
+      <c r="M22" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C23" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
         <is>
           <t>Actividad</t>
         </is>
       </c>
-      <c r="E19" s="0">
+      <c r="E23" s="0">
         <v>5999</v>
       </c>
-      <c r="F19" s="0" t="inlineStr">
+      <c r="F23" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 9</t>
         </is>
       </c>
-      <c r="G19" s="0" t="inlineStr">
+      <c r="G23" s="0" t="inlineStr">
         <is>
           <t>Objetivo Prueba Reportes 001</t>
         </is>
       </c>
-      <c r="H19" s="0" t="inlineStr">
+      <c r="H23" s="0" t="inlineStr">
         <is>
           <t>Estrategia Prueba Reportes 001</t>
         </is>
       </c>
-      <c r="I19" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J19" s="0" t="inlineStr">
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
         <is>
           <t>Supuesto Prueba Reportes 001</t>
         </is>
       </c>
-      <c r="K19" s="0" t="inlineStr">
+      <c r="K23" s="0" t="inlineStr">
         <is>
           <t>Area 1 de la Dependencia Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="L19" s="0" t="inlineStr">
+      <c r="L23" s="0" t="inlineStr">
         <is>
           <t>Indicador Prueba Reportes 001</t>
         </is>
       </c>
-      <c r="M19" s="0" t="inlineStr">
+      <c r="M23" s="0" t="inlineStr">
         <is>
           <t>Prueba Reportes 001</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="inlineStr">
+    <row r="24" spans="1:13">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
         </is>
       </c>
-      <c r="C20" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D20" s="0" t="inlineStr">
+      <c r="C24" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
         <is>
           <t>Propósito</t>
         </is>
       </c>
-      <c r="E20" s="0">
+      <c r="E24" s="0">
         <v>5995</v>
       </c>
-      <c r="F20" s="0" t="inlineStr">
+      <c r="F24" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 1</t>
         </is>
       </c>
-      <c r="G20" s="0" t="inlineStr">
+      <c r="G24" s="0" t="inlineStr">
         <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="H20" s="0" t="inlineStr">
+      <c r="H24" s="0" t="inlineStr">
         <is>
           <t>aaaa</t>
         </is>
       </c>
-      <c r="I20" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J20" s="0" t="inlineStr">
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
         <is>
           <t>aaaaaa</t>
         </is>
       </c>
-      <c r="K20" s="0" t="inlineStr">
+      <c r="K24" s="0" t="inlineStr">
         <is>
           <t>Area 1 de la Dependencia Admin </t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="inlineStr">
+    <row r="25" spans="1:13">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
         </is>
       </c>
-      <c r="C21" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D21" s="0" t="inlineStr">
+      <c r="C25" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
         <is>
           <t>Propósito</t>
         </is>
       </c>
-      <c r="E21" s="0">
+      <c r="E25" s="0">
         <v>5992</v>
       </c>
-      <c r="F21" s="0" t="inlineStr">
+      <c r="F25" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 12</t>
         </is>
       </c>
-      <c r="G21" s="0" t="inlineStr">
+      <c r="G25" s="0" t="inlineStr">
         <is>
           <t>ddd</t>
         </is>
       </c>
-      <c r="H21" s="0" t="inlineStr">
+      <c r="H25" s="0" t="inlineStr">
         <is>
           <t>gg</t>
         </is>
       </c>
-      <c r="I21" s="0" t="inlineStr">
+      <c r="I25" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J21" s="0" t="inlineStr">
+      <c r="J25" s="0" t="inlineStr">
         <is>
           <t>ggg</t>
         </is>
       </c>
-      <c r="K21" s="0" t="inlineStr">
+      <c r="K25" s="0" t="inlineStr">
         <is>
           <t>Area 2 de la Dependencia Admin </t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C22" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D22" s="0" t="inlineStr">
+    <row r="26" spans="1:13">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C26" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
         <is>
           <t>Propósito</t>
         </is>
       </c>
-      <c r="E22" s="0">
+      <c r="E26" s="0">
         <v>5993</v>
       </c>
-      <c r="F22" s="0" t="inlineStr">
+      <c r="F26" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 4</t>
         </is>
       </c>
-      <c r="G22" s="0" t="inlineStr">
+      <c r="G26" s="0" t="inlineStr">
         <is>
           <t>aaaaaa</t>
         </is>
       </c>
-      <c r="H22" s="0" t="inlineStr">
+      <c r="H26" s="0" t="inlineStr">
         <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="I22" s="0" t="inlineStr">
+      <c r="I26" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J22" s="0" t="inlineStr">
+      <c r="J26" s="0" t="inlineStr">
         <is>
           <t>TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst vv</t>
         </is>
       </c>
-      <c r="K22" s="0" t="inlineStr">
+      <c r="K26" s="0" t="inlineStr">
         <is>
           <t>Area 1 de la Dependencia Secretaría de Finanzas</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C23" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D23" s="0" t="inlineStr">
+    <row r="27" spans="1:13">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C27" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
         <is>
           <t>Propósito</t>
         </is>
       </c>
-      <c r="E23" s="0">
+      <c r="E27" s="0">
         <v>5991</v>
       </c>
-      <c r="F23" s="0" t="inlineStr">
+      <c r="F27" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 7</t>
         </is>
       </c>
-      <c r="G23" s="0" t="inlineStr">
+      <c r="G27" s="0" t="inlineStr">
         <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="H23" s="0" t="inlineStr">
+      <c r="H27" s="0" t="inlineStr">
         <is>
           <t>ggg</t>
         </is>
       </c>
-      <c r="I23" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J23" s="0" t="inlineStr">
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
         <is>
           <t>aaaa</t>
         </is>
       </c>
-      <c r="K23" s="0" t="inlineStr">
+      <c r="K27" s="0" t="inlineStr">
         <is>
           <t>Area 2</t>
         </is>

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -28,7 +28,7 @@
     </font>
     <font>
       <sz val="45"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -58,7 +58,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000000"/>
+        <fgColor rgb="FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -130,7 +130,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>06-16-2022 08:14:08 pm</t>
+          <t>06-16-2022 09:34:22 pm</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>Admin </t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C17" s="0">
@@ -876,21 +876,21 @@
         </is>
       </c>
       <c r="E17" s="0">
-        <v>5994</v>
+        <v>5988</v>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Programa Presupuestario 101</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>qwe</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>Modificado</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
@@ -900,22 +900,22 @@
       </c>
       <c r="J17" s="0" t="inlineStr">
         <is>
-          <t>aasdfdfgh</t>
+          <t>Supuesto</t>
         </is>
       </c>
       <c r="K17" s="0" t="inlineStr">
         <is>
-          <t>Area 1 de la Dependencia Admin </t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="L17" s="0" t="inlineStr">
         <is>
-          <t>Indicador 2</t>
+          <t>Indicado 1</t>
         </is>
       </c>
       <c r="M17" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>asd</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="E18" s="0">
-        <v>5996</v>
+        <v>5994</v>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
@@ -954,32 +954,32 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>aasdfdfgh</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>Area 1 de la Dependencia Admin </t>
+        </is>
+      </c>
+      <c r="L18" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 2</t>
+        </is>
+      </c>
+      <c r="M18" s="0" t="inlineStr">
+        <is>
           <t>aa</t>
-        </is>
-      </c>
-      <c r="I18" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J18" s="0" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="K18" s="0" t="inlineStr">
-        <is>
-          <t>Area 2 de la Dependencia Admin </t>
-        </is>
-      </c>
-      <c r="L18" s="0" t="inlineStr">
-        <is>
-          <t>Indicador 1</t>
-        </is>
-      </c>
-      <c r="M18" s="0" t="inlineStr">
-        <is>
-          <t>aaa</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Finanzas</t>
+          <t>Admin </t>
         </is>
       </c>
       <c r="C19" s="0">
@@ -1004,23 +1004,23 @@
         </is>
       </c>
       <c r="E19" s="0">
-        <v>5997</v>
+        <v>5996</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 5</t>
+          <t>Programa Presupuestario 1</t>
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
           <t>aa</t>
         </is>
       </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
           <t>1</t>
@@ -1028,12 +1028,12 @@
       </c>
       <c r="J19" s="0" t="inlineStr">
         <is>
-          <t>Este es un supuesto</t>
+          <t>aaa</t>
         </is>
       </c>
       <c r="K19" s="0" t="inlineStr">
         <is>
-          <t>Area 2</t>
+          <t>Area 2 de la Dependencia Admin </t>
         </is>
       </c>
       <c r="L19" s="0" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="M19" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>aaa</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>Admin </t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C20" s="0">
@@ -1068,21 +1068,21 @@
         </is>
       </c>
       <c r="E20" s="0">
-        <v>5998</v>
+        <v>5997</v>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Programa Presupuestario 5</t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
@@ -1092,22 +1092,22 @@
       </c>
       <c r="J20" s="0" t="inlineStr">
         <is>
+          <t>Este es un supuesto</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>Area 2</t>
+        </is>
+      </c>
+      <c r="L20" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1</t>
+        </is>
+      </c>
+      <c r="M20" s="0" t="inlineStr">
+        <is>
           <t>aa</t>
-        </is>
-      </c>
-      <c r="K20" s="0" t="inlineStr">
-        <is>
-          <t>Area 2 de la Dependencia Admin </t>
-        </is>
-      </c>
-      <c r="L20" s="0" t="inlineStr">
-        <is>
-          <t>Indicador 1</t>
-        </is>
-      </c>
-      <c r="M20" s="0" t="inlineStr">
-        <is>
-          <t>AAA</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Finanzas</t>
+          <t>Admin </t>
         </is>
       </c>
       <c r="C21" s="0">
@@ -1128,50 +1128,50 @@
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="E21" s="0">
-        <v>5529</v>
+        <v>5998</v>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 3</t>
+          <t>Programa Presupuestario 12</t>
         </is>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>Optimizar la generación de recursos propios estatales </t>
+          <t>aaa</t>
         </is>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>Subasta pública electrónica</t>
+          <t>aaa</t>
         </is>
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J21" s="0" t="inlineStr">
         <is>
-          <t>Supuesto de la actividad Aprovechar los recursos propios</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="K21" s="0" t="inlineStr">
         <is>
-          <t>Area 1</t>
+          <t>Area 2 de la Dependencia Admin </t>
         </is>
       </c>
       <c r="L21" s="0" t="inlineStr">
         <is>
-          <t>Monto de los recursos subastados a través del Portal web público</t>
+          <t>Indicador 1</t>
         </is>
       </c>
       <c r="M21" s="0" t="inlineStr">
         <is>
-          <t>Medio de verificacion test</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
@@ -1192,11 +1192,11 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>Estrategia</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="E22" s="0">
-        <v>5990</v>
+        <v>5988</v>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
@@ -1205,12 +1205,12 @@
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qwe</t>
         </is>
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>Modificado</t>
         </is>
       </c>
       <c r="I22" s="0" t="inlineStr">
@@ -1220,22 +1220,22 @@
       </c>
       <c r="J22" s="0" t="inlineStr">
         <is>
-          <t>qqqq</t>
+          <t>Supuesto</t>
         </is>
       </c>
       <c r="K22" s="0" t="inlineStr">
         <is>
-          <t>Area 1</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="L22" s="0" t="inlineStr">
         <is>
-          <t>Indicador de prueba Mir 2</t>
+          <t>Prueba</t>
         </is>
       </c>
       <c r="M22" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>adada</t>
         </is>
       </c>
     </row>
@@ -1256,25 +1256,25 @@
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="E23" s="0">
-        <v>5999</v>
+        <v>5988</v>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 9</t>
+          <t>Programa Presupuestario 101</t>
         </is>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
-          <t>Objetivo Prueba Reportes 001</t>
+          <t>qwe</t>
         </is>
       </c>
       <c r="H23" s="0" t="inlineStr">
         <is>
-          <t>Estrategia Prueba Reportes 001</t>
+          <t>Modificado</t>
         </is>
       </c>
       <c r="I23" s="0" t="inlineStr">
@@ -1284,22 +1284,22 @@
       </c>
       <c r="J23" s="0" t="inlineStr">
         <is>
-          <t>Supuesto Prueba Reportes 001</t>
+          <t>Supuesto</t>
         </is>
       </c>
       <c r="K23" s="0" t="inlineStr">
         <is>
-          <t>Area 1 de la Dependencia Secretaría de Finanzas</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="L23" s="0" t="inlineStr">
         <is>
-          <t>Indicador Prueba Reportes 001</t>
+          <t>Prueba</t>
         </is>
       </c>
       <c r="M23" s="0" t="inlineStr">
         <is>
-          <t>Prueba Reportes 001</t>
+          <t>adada</t>
         </is>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>Admin </t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C24" s="0">
@@ -1324,21 +1324,21 @@
         </is>
       </c>
       <c r="E24" s="0">
-        <v>5995</v>
+        <v>5988</v>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Programa Presupuestario 101</t>
         </is>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>qwe</t>
         </is>
       </c>
       <c r="H24" s="0" t="inlineStr">
         <is>
-          <t>aaaa</t>
+          <t>Modificado</t>
         </is>
       </c>
       <c r="I24" s="0" t="inlineStr">
@@ -1348,12 +1348,22 @@
       </c>
       <c r="J24" s="0" t="inlineStr">
         <is>
-          <t>aaaaaa</t>
+          <t>Supuesto</t>
         </is>
       </c>
       <c r="K24" s="0" t="inlineStr">
         <is>
-          <t>Area 1 de la Dependencia Admin </t>
+          <t>Area 2</t>
+        </is>
+      </c>
+      <c r="L24" s="0" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="M24" s="0" t="inlineStr">
+        <is>
+          <t>adada</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1376,7 @@
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>Admin </t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C25" s="0">
@@ -1378,36 +1388,46 @@
         </is>
       </c>
       <c r="E25" s="0">
-        <v>5992</v>
+        <v>5988</v>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Programa Presupuestario 101</t>
         </is>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
-          <t>ddd</t>
+          <t>qwe</t>
         </is>
       </c>
       <c r="H25" s="0" t="inlineStr">
         <is>
-          <t>gg</t>
+          <t>Modificado</t>
         </is>
       </c>
       <c r="I25" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J25" s="0" t="inlineStr">
         <is>
-          <t>ggg</t>
+          <t>Supuesto</t>
         </is>
       </c>
       <c r="K25" s="0" t="inlineStr">
         <is>
-          <t>Area 2 de la Dependencia Admin </t>
+          <t>Area 2</t>
+        </is>
+      </c>
+      <c r="L25" s="0" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="M25" s="0" t="inlineStr">
+        <is>
+          <t>adada</t>
         </is>
       </c>
     </row>
@@ -1428,25 +1448,25 @@
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="E26" s="0">
-        <v>5993</v>
+        <v>5529</v>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 4</t>
+          <t>Programa Presupuestario 3</t>
         </is>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
-          <t>aaaaaa</t>
+          <t>Optimizar la generación de recursos propios estatales </t>
         </is>
       </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>Subasta pública electrónica</t>
         </is>
       </c>
       <c r="I26" s="0" t="inlineStr">
@@ -1456,12 +1476,22 @@
       </c>
       <c r="J26" s="0" t="inlineStr">
         <is>
-          <t>TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst vv</t>
+          <t>Supuesto de la actividad Aprovechar los recursos propios</t>
         </is>
       </c>
       <c r="K26" s="0" t="inlineStr">
         <is>
-          <t>Area 1 de la Dependencia Secretaría de Finanzas</t>
+          <t>Area 1</t>
+        </is>
+      </c>
+      <c r="L26" s="0" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
+        </is>
+      </c>
+      <c r="M26" s="0" t="inlineStr">
+        <is>
+          <t>Medio de verificacion test</t>
         </is>
       </c>
     </row>
@@ -1482,38 +1512,328 @@
       </c>
       <c r="D27" s="0" t="inlineStr">
         <is>
+          <t>Estrategia</t>
+        </is>
+      </c>
+      <c r="E27" s="0">
+        <v>5990</v>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 101</t>
+        </is>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
+        <is>
+          <t>qqqq</t>
+        </is>
+      </c>
+      <c r="K27" s="0" t="inlineStr">
+        <is>
+          <t>Area 1</t>
+        </is>
+      </c>
+      <c r="L27" s="0" t="inlineStr">
+        <is>
+          <t>Indicador de prueba Mir 2</t>
+        </is>
+      </c>
+      <c r="M27" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C28" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="E28" s="0">
+        <v>5999</v>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 9</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>Objetivo Prueba Reportes 001</t>
+        </is>
+      </c>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>Estrategia Prueba Reportes 001</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto Prueba Reportes 001</t>
+        </is>
+      </c>
+      <c r="K28" s="0" t="inlineStr">
+        <is>
+          <t>Area 1 de la Dependencia Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="L28" s="0" t="inlineStr">
+        <is>
+          <t>Indicador Prueba Reportes 001</t>
+        </is>
+      </c>
+      <c r="M28" s="0" t="inlineStr">
+        <is>
+          <t>Prueba Reportes 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Admin </t>
+        </is>
+      </c>
+      <c r="C29" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
           <t>Propósito</t>
         </is>
       </c>
-      <c r="E27" s="0">
+      <c r="E29" s="0">
+        <v>5995</v>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="I29" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J29" s="0" t="inlineStr">
+        <is>
+          <t>aaaaaa</t>
+        </is>
+      </c>
+      <c r="K29" s="0" t="inlineStr">
+        <is>
+          <t>Area 1 de la Dependencia Admin </t>
+        </is>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Admin </t>
+        </is>
+      </c>
+      <c r="C30" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E30" s="0">
+        <v>5992</v>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 12</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>gg</t>
+        </is>
+      </c>
+      <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J30" s="0" t="inlineStr">
+        <is>
+          <t>ggg</t>
+        </is>
+      </c>
+      <c r="K30" s="0" t="inlineStr">
+        <is>
+          <t>Area 2 de la Dependencia Admin </t>
+        </is>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C31" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E31" s="0">
+        <v>5993</v>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 4</t>
+        </is>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>aaaaaa</t>
+        </is>
+      </c>
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="I31" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst vv</t>
+        </is>
+      </c>
+      <c r="K31" s="0" t="inlineStr">
+        <is>
+          <t>Area 1 de la Dependencia Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C32" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E32" s="0">
         <v>5991</v>
       </c>
-      <c r="F27" s="0" t="inlineStr">
+      <c r="F32" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 7</t>
         </is>
       </c>
-      <c r="G27" s="0" t="inlineStr">
+      <c r="G32" s="0" t="inlineStr">
         <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="H27" s="0" t="inlineStr">
+      <c r="H32" s="0" t="inlineStr">
         <is>
           <t>ggg</t>
         </is>
       </c>
-      <c r="I27" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J27" s="0" t="inlineStr">
+      <c r="I32" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J32" s="0" t="inlineStr">
         <is>
           <t>aaaa</t>
         </is>
       </c>
-      <c r="K27" s="0" t="inlineStr">
+      <c r="K32" s="0" t="inlineStr">
         <is>
           <t>Area 2</t>
         </is>

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -27,7 +27,7 @@
       <i/>
     </font>
     <font>
-      <sz val="45"/>
+      <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -130,7 +130,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>06-16-2022 09:34:22 pm</t>
+          <t>06-17-2022 03:34:33 pm</t>
         </is>
       </c>
     </row>
@@ -226,7 +226,7 @@
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G6" s="0" t="inlineStr">
@@ -285,7 +285,7 @@
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G7" s="0" t="inlineStr">
@@ -344,7 +344,7 @@
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
@@ -403,7 +403,7 @@
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr">
@@ -462,7 +462,7 @@
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G10" s="0" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G11" s="0" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G12" s="0" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G13" s="0" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G14" s="0" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="G15" s="0" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>Admin </t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C16" s="0">
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E16" s="0">
-        <v>5994</v>
+        <v>5988</v>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>qwe</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>Modificado</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
@@ -836,22 +836,22 @@
       </c>
       <c r="J16" s="0" t="inlineStr">
         <is>
-          <t>aasdfdfgh</t>
+          <t>Supuesto</t>
         </is>
       </c>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>Area 1 de la Dependencia Admin </t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="L16" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Indicado 1</t>
         </is>
       </c>
       <c r="M16" s="0" t="inlineStr">
         <is>
-          <t>adada</t>
+          <t>asd</t>
         </is>
       </c>
     </row>
@@ -876,21 +876,21 @@
         </is>
       </c>
       <c r="E17" s="0">
-        <v>5988</v>
+        <v>5997</v>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Deporte</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>qwe</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>Modificado</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="J17" s="0" t="inlineStr">
         <is>
-          <t>Supuesto</t>
+          <t>Este es un supuesto</t>
         </is>
       </c>
       <c r="K17" s="0" t="inlineStr">
@@ -910,12 +910,12 @@
       </c>
       <c r="L17" s="0" t="inlineStr">
         <is>
-          <t>Indicado 1</t>
+          <t>Indicador 1</t>
         </is>
       </c>
       <c r="M17" s="0" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>aa</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>Admin </t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C18" s="0">
@@ -936,50 +936,50 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="E18" s="0">
-        <v>5994</v>
+        <v>5529</v>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Educación</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>Optimizar la generación de recursos propios estatales </t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>Subasta pública electrónica</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J18" s="0" t="inlineStr">
         <is>
-          <t>aasdfdfgh</t>
+          <t>Supuesto de la actividad Aprovechar los recursos propios</t>
         </is>
       </c>
       <c r="K18" s="0" t="inlineStr">
         <is>
-          <t>Area 1 de la Dependencia Admin </t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="L18" s="0" t="inlineStr">
         <is>
-          <t>Indicador 2</t>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
         </is>
       </c>
       <c r="M18" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>Medio de verificacion test</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>Admin </t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C19" s="0">
@@ -1000,27 +1000,27 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Estrategia</t>
         </is>
       </c>
       <c r="E19" s="0">
-        <v>5996</v>
+        <v>5990</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
           <t>1</t>
@@ -1028,22 +1028,22 @@
       </c>
       <c r="J19" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>qqqq</t>
         </is>
       </c>
       <c r="K19" s="0" t="inlineStr">
         <is>
-          <t>Area 2 de la Dependencia Admin </t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="L19" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Indicador de prueba Mir 2</t>
         </is>
       </c>
       <c r="M19" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1068,21 +1068,21 @@
         </is>
       </c>
       <c r="E20" s="0">
-        <v>5997</v>
+        <v>5988</v>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 5</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qwe</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>Modificado</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="J20" s="0" t="inlineStr">
         <is>
-          <t>Este es un supuesto</t>
+          <t>Supuesto</t>
         </is>
       </c>
       <c r="K20" s="0" t="inlineStr">
@@ -1102,12 +1102,12 @@
       </c>
       <c r="L20" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Prueba</t>
         </is>
       </c>
       <c r="M20" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>adada</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>Admin </t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C21" s="0">
@@ -1132,21 +1132,21 @@
         </is>
       </c>
       <c r="E21" s="0">
-        <v>5998</v>
+        <v>5988</v>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>qwe</t>
         </is>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>Modificado</t>
         </is>
       </c>
       <c r="I21" s="0" t="inlineStr">
@@ -1156,22 +1156,22 @@
       </c>
       <c r="J21" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>Supuesto</t>
         </is>
       </c>
       <c r="K21" s="0" t="inlineStr">
         <is>
-          <t>Area 2 de la Dependencia Admin </t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="L21" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Prueba</t>
         </is>
       </c>
       <c r="M21" s="0" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>adada</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G22" s="0" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G23" s="0" t="inlineStr">
@@ -1320,25 +1320,25 @@
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="E24" s="0">
-        <v>5988</v>
+        <v>5999</v>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Promoción de Sectores Ecónomicos</t>
         </is>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
-          <t>qwe</t>
+          <t>Objetivo Prueba Reportes 001</t>
         </is>
       </c>
       <c r="H24" s="0" t="inlineStr">
         <is>
-          <t>Modificado</t>
+          <t>Estrategia Prueba Reportes 001</t>
         </is>
       </c>
       <c r="I24" s="0" t="inlineStr">
@@ -1348,22 +1348,22 @@
       </c>
       <c r="J24" s="0" t="inlineStr">
         <is>
-          <t>Supuesto</t>
+          <t>Supuesto Prueba Reportes 001</t>
         </is>
       </c>
       <c r="K24" s="0" t="inlineStr">
         <is>
-          <t>Area 2</t>
+          <t>Area 1 de la Dependencia Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="L24" s="0" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>Indicador Prueba Reportes 001</t>
         </is>
       </c>
       <c r="M24" s="0" t="inlineStr">
         <is>
-          <t>adada</t>
+          <t>Prueba Reportes 001</t>
         </is>
       </c>
     </row>
@@ -1388,46 +1388,36 @@
         </is>
       </c>
       <c r="E25" s="0">
-        <v>5988</v>
+        <v>5993</v>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Cultura</t>
         </is>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
-          <t>qwe</t>
+          <t>aaaaaa</t>
         </is>
       </c>
       <c r="H25" s="0" t="inlineStr">
         <is>
-          <t>Modificado</t>
+          <t>aaa</t>
         </is>
       </c>
       <c r="I25" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J25" s="0" t="inlineStr">
         <is>
-          <t>Supuesto</t>
+          <t>TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst vv</t>
         </is>
       </c>
       <c r="K25" s="0" t="inlineStr">
         <is>
-          <t>Area 2</t>
-        </is>
-      </c>
-      <c r="L25" s="0" t="inlineStr">
-        <is>
-          <t>Prueba</t>
-        </is>
-      </c>
-      <c r="M25" s="0" t="inlineStr">
-        <is>
-          <t>adada</t>
+          <t>Area 1 de la Dependencia Secretaría de Finanzas</t>
         </is>
       </c>
     </row>
@@ -1448,392 +1438,38 @@
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="E26" s="0">
-        <v>5529</v>
+        <v>5991</v>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 3</t>
+          <t>Desarrollo Económico</t>
         </is>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
-          <t>Optimizar la generación de recursos propios estatales </t>
+          <t>aaa</t>
         </is>
       </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
-          <t>Subasta pública electrónica</t>
+          <t>ggg</t>
         </is>
       </c>
       <c r="I26" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J26" s="0" t="inlineStr">
         <is>
-          <t>Supuesto de la actividad Aprovechar los recursos propios</t>
+          <t>aaaa</t>
         </is>
       </c>
       <c r="K26" s="0" t="inlineStr">
-        <is>
-          <t>Area 1</t>
-        </is>
-      </c>
-      <c r="L26" s="0" t="inlineStr">
-        <is>
-          <t>Monto de los recursos subastados a través del Portal web público</t>
-        </is>
-      </c>
-      <c r="M26" s="0" t="inlineStr">
-        <is>
-          <t>Medio de verificacion test</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="4" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C27" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D27" s="0" t="inlineStr">
-        <is>
-          <t>Estrategia</t>
-        </is>
-      </c>
-      <c r="E27" s="0">
-        <v>5990</v>
-      </c>
-      <c r="F27" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 101</t>
-        </is>
-      </c>
-      <c r="G27" s="0" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="H27" s="0" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="I27" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J27" s="0" t="inlineStr">
-        <is>
-          <t>qqqq</t>
-        </is>
-      </c>
-      <c r="K27" s="0" t="inlineStr">
-        <is>
-          <t>Area 1</t>
-        </is>
-      </c>
-      <c r="L27" s="0" t="inlineStr">
-        <is>
-          <t>Indicador de prueba Mir 2</t>
-        </is>
-      </c>
-      <c r="M27" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="4" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C28" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D28" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="E28" s="0">
-        <v>5999</v>
-      </c>
-      <c r="F28" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 9</t>
-        </is>
-      </c>
-      <c r="G28" s="0" t="inlineStr">
-        <is>
-          <t>Objetivo Prueba Reportes 001</t>
-        </is>
-      </c>
-      <c r="H28" s="0" t="inlineStr">
-        <is>
-          <t>Estrategia Prueba Reportes 001</t>
-        </is>
-      </c>
-      <c r="I28" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J28" s="0" t="inlineStr">
-        <is>
-          <t>Supuesto Prueba Reportes 001</t>
-        </is>
-      </c>
-      <c r="K28" s="0" t="inlineStr">
-        <is>
-          <t>Area 1 de la Dependencia Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="L28" s="0" t="inlineStr">
-        <is>
-          <t>Indicador Prueba Reportes 001</t>
-        </is>
-      </c>
-      <c r="M28" s="0" t="inlineStr">
-        <is>
-          <t>Prueba Reportes 001</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="4" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t>Admin </t>
-        </is>
-      </c>
-      <c r="C29" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D29" s="0" t="inlineStr">
-        <is>
-          <t>Propósito</t>
-        </is>
-      </c>
-      <c r="E29" s="0">
-        <v>5995</v>
-      </c>
-      <c r="F29" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 1</t>
-        </is>
-      </c>
-      <c r="G29" s="0" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="H29" s="0" t="inlineStr">
-        <is>
-          <t>aaaa</t>
-        </is>
-      </c>
-      <c r="I29" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J29" s="0" t="inlineStr">
-        <is>
-          <t>aaaaaa</t>
-        </is>
-      </c>
-      <c r="K29" s="0" t="inlineStr">
-        <is>
-          <t>Area 1 de la Dependencia Admin </t>
-        </is>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="4" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>Admin </t>
-        </is>
-      </c>
-      <c r="C30" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D30" s="0" t="inlineStr">
-        <is>
-          <t>Propósito</t>
-        </is>
-      </c>
-      <c r="E30" s="0">
-        <v>5992</v>
-      </c>
-      <c r="F30" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 12</t>
-        </is>
-      </c>
-      <c r="G30" s="0" t="inlineStr">
-        <is>
-          <t>ddd</t>
-        </is>
-      </c>
-      <c r="H30" s="0" t="inlineStr">
-        <is>
-          <t>gg</t>
-        </is>
-      </c>
-      <c r="I30" s="0" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J30" s="0" t="inlineStr">
-        <is>
-          <t>ggg</t>
-        </is>
-      </c>
-      <c r="K30" s="0" t="inlineStr">
-        <is>
-          <t>Area 2 de la Dependencia Admin </t>
-        </is>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="4" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C31" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D31" s="0" t="inlineStr">
-        <is>
-          <t>Propósito</t>
-        </is>
-      </c>
-      <c r="E31" s="0">
-        <v>5993</v>
-      </c>
-      <c r="F31" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 4</t>
-        </is>
-      </c>
-      <c r="G31" s="0" t="inlineStr">
-        <is>
-          <t>aaaaaa</t>
-        </is>
-      </c>
-      <c r="H31" s="0" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="I31" s="0" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J31" s="0" t="inlineStr">
-        <is>
-          <t>TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst vv</t>
-        </is>
-      </c>
-      <c r="K31" s="0" t="inlineStr">
-        <is>
-          <t>Area 1 de la Dependencia Secretaría de Finanzas</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="4" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C32" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D32" s="0" t="inlineStr">
-        <is>
-          <t>Propósito</t>
-        </is>
-      </c>
-      <c r="E32" s="0">
-        <v>5991</v>
-      </c>
-      <c r="F32" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 7</t>
-        </is>
-      </c>
-      <c r="G32" s="0" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="H32" s="0" t="inlineStr">
-        <is>
-          <t>ggg</t>
-        </is>
-      </c>
-      <c r="I32" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J32" s="0" t="inlineStr">
-        <is>
-          <t>aaaa</t>
-        </is>
-      </c>
-      <c r="K32" s="0" t="inlineStr">
         <is>
           <t>Area 2</t>
         </is>

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -130,7 +130,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>06-16-2022 09:34:22 pm</t>
+          <t>06-17-2022 03:30:48 pm</t>
         </is>
       </c>
     </row>
@@ -226,7 +226,7 @@
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G6" s="0" t="inlineStr">
@@ -285,7 +285,7 @@
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G7" s="0" t="inlineStr">
@@ -344,7 +344,7 @@
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
@@ -403,7 +403,7 @@
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr">
@@ -462,7 +462,7 @@
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G10" s="0" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G11" s="0" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G12" s="0" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G13" s="0" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G14" s="0" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="G15" s="0" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>Admin </t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C16" s="0">
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E16" s="0">
-        <v>5994</v>
+        <v>5988</v>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>qwe</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>Modificado</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
@@ -836,22 +836,22 @@
       </c>
       <c r="J16" s="0" t="inlineStr">
         <is>
-          <t>aasdfdfgh</t>
+          <t>Supuesto</t>
         </is>
       </c>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>Area 1 de la Dependencia Admin </t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="L16" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Indicado 1</t>
         </is>
       </c>
       <c r="M16" s="0" t="inlineStr">
         <is>
-          <t>adada</t>
+          <t>asd</t>
         </is>
       </c>
     </row>
@@ -876,21 +876,21 @@
         </is>
       </c>
       <c r="E17" s="0">
-        <v>5988</v>
+        <v>5997</v>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Deporte</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>qwe</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>Modificado</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="J17" s="0" t="inlineStr">
         <is>
-          <t>Supuesto</t>
+          <t>Este es un supuesto</t>
         </is>
       </c>
       <c r="K17" s="0" t="inlineStr">
@@ -910,12 +910,12 @@
       </c>
       <c r="L17" s="0" t="inlineStr">
         <is>
-          <t>Indicado 1</t>
+          <t>Indicador 1</t>
         </is>
       </c>
       <c r="M17" s="0" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>aa</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>Admin </t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C18" s="0">
@@ -936,50 +936,50 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="E18" s="0">
-        <v>5994</v>
+        <v>5529</v>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Educación</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>Optimizar la generación de recursos propios estatales </t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>Subasta pública electrónica</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J18" s="0" t="inlineStr">
         <is>
-          <t>aasdfdfgh</t>
+          <t>Supuesto de la actividad Aprovechar los recursos propios</t>
         </is>
       </c>
       <c r="K18" s="0" t="inlineStr">
         <is>
-          <t>Area 1 de la Dependencia Admin </t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="L18" s="0" t="inlineStr">
         <is>
-          <t>Indicador 2</t>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
         </is>
       </c>
       <c r="M18" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>Medio de verificacion test</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>Admin </t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C19" s="0">
@@ -1000,27 +1000,27 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Estrategia</t>
         </is>
       </c>
       <c r="E19" s="0">
-        <v>5996</v>
+        <v>5990</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
           <t>1</t>
@@ -1028,22 +1028,22 @@
       </c>
       <c r="J19" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>qqqq</t>
         </is>
       </c>
       <c r="K19" s="0" t="inlineStr">
         <is>
-          <t>Area 2 de la Dependencia Admin </t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="L19" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Indicador de prueba Mir 2</t>
         </is>
       </c>
       <c r="M19" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1068,21 +1068,21 @@
         </is>
       </c>
       <c r="E20" s="0">
-        <v>5997</v>
+        <v>5988</v>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 5</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qwe</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>Modificado</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="J20" s="0" t="inlineStr">
         <is>
-          <t>Este es un supuesto</t>
+          <t>Supuesto</t>
         </is>
       </c>
       <c r="K20" s="0" t="inlineStr">
@@ -1102,12 +1102,12 @@
       </c>
       <c r="L20" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Prueba</t>
         </is>
       </c>
       <c r="M20" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>adada</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>Admin </t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C21" s="0">
@@ -1132,21 +1132,21 @@
         </is>
       </c>
       <c r="E21" s="0">
-        <v>5998</v>
+        <v>5988</v>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>qwe</t>
         </is>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>Modificado</t>
         </is>
       </c>
       <c r="I21" s="0" t="inlineStr">
@@ -1156,22 +1156,22 @@
       </c>
       <c r="J21" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>Supuesto</t>
         </is>
       </c>
       <c r="K21" s="0" t="inlineStr">
         <is>
-          <t>Area 2 de la Dependencia Admin </t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="L21" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Prueba</t>
         </is>
       </c>
       <c r="M21" s="0" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>adada</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G22" s="0" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="G23" s="0" t="inlineStr">
@@ -1320,25 +1320,25 @@
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="E24" s="0">
-        <v>5988</v>
+        <v>5999</v>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Promoción de Sectores Ecónomicos</t>
         </is>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
-          <t>qwe</t>
+          <t>Objetivo Prueba Reportes 001</t>
         </is>
       </c>
       <c r="H24" s="0" t="inlineStr">
         <is>
-          <t>Modificado</t>
+          <t>Estrategia Prueba Reportes 001</t>
         </is>
       </c>
       <c r="I24" s="0" t="inlineStr">
@@ -1348,22 +1348,22 @@
       </c>
       <c r="J24" s="0" t="inlineStr">
         <is>
-          <t>Supuesto</t>
+          <t>Supuesto Prueba Reportes 001</t>
         </is>
       </c>
       <c r="K24" s="0" t="inlineStr">
         <is>
-          <t>Area 2</t>
+          <t>Area 1 de la Dependencia Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="L24" s="0" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>Indicador Prueba Reportes 001</t>
         </is>
       </c>
       <c r="M24" s="0" t="inlineStr">
         <is>
-          <t>adada</t>
+          <t>Prueba Reportes 001</t>
         </is>
       </c>
     </row>
@@ -1388,46 +1388,36 @@
         </is>
       </c>
       <c r="E25" s="0">
-        <v>5988</v>
+        <v>5993</v>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Cultura</t>
         </is>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
-          <t>qwe</t>
+          <t>aaaaaa</t>
         </is>
       </c>
       <c r="H25" s="0" t="inlineStr">
         <is>
-          <t>Modificado</t>
+          <t>aaa</t>
         </is>
       </c>
       <c r="I25" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J25" s="0" t="inlineStr">
         <is>
-          <t>Supuesto</t>
+          <t>TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst vv</t>
         </is>
       </c>
       <c r="K25" s="0" t="inlineStr">
         <is>
-          <t>Area 2</t>
-        </is>
-      </c>
-      <c r="L25" s="0" t="inlineStr">
-        <is>
-          <t>Prueba</t>
-        </is>
-      </c>
-      <c r="M25" s="0" t="inlineStr">
-        <is>
-          <t>adada</t>
+          <t>Area 1 de la Dependencia Secretaría de Finanzas</t>
         </is>
       </c>
     </row>
@@ -1448,392 +1438,38 @@
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="E26" s="0">
-        <v>5529</v>
+        <v>5991</v>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 3</t>
+          <t>Desarrollo Económico</t>
         </is>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
-          <t>Optimizar la generación de recursos propios estatales </t>
+          <t>aaa</t>
         </is>
       </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
-          <t>Subasta pública electrónica</t>
+          <t>ggg</t>
         </is>
       </c>
       <c r="I26" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J26" s="0" t="inlineStr">
         <is>
-          <t>Supuesto de la actividad Aprovechar los recursos propios</t>
+          <t>aaaa</t>
         </is>
       </c>
       <c r="K26" s="0" t="inlineStr">
-        <is>
-          <t>Area 1</t>
-        </is>
-      </c>
-      <c r="L26" s="0" t="inlineStr">
-        <is>
-          <t>Monto de los recursos subastados a través del Portal web público</t>
-        </is>
-      </c>
-      <c r="M26" s="0" t="inlineStr">
-        <is>
-          <t>Medio de verificacion test</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="4" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C27" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D27" s="0" t="inlineStr">
-        <is>
-          <t>Estrategia</t>
-        </is>
-      </c>
-      <c r="E27" s="0">
-        <v>5990</v>
-      </c>
-      <c r="F27" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 101</t>
-        </is>
-      </c>
-      <c r="G27" s="0" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="H27" s="0" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="I27" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J27" s="0" t="inlineStr">
-        <is>
-          <t>qqqq</t>
-        </is>
-      </c>
-      <c r="K27" s="0" t="inlineStr">
-        <is>
-          <t>Area 1</t>
-        </is>
-      </c>
-      <c r="L27" s="0" t="inlineStr">
-        <is>
-          <t>Indicador de prueba Mir 2</t>
-        </is>
-      </c>
-      <c r="M27" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="4" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C28" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D28" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="E28" s="0">
-        <v>5999</v>
-      </c>
-      <c r="F28" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 9</t>
-        </is>
-      </c>
-      <c r="G28" s="0" t="inlineStr">
-        <is>
-          <t>Objetivo Prueba Reportes 001</t>
-        </is>
-      </c>
-      <c r="H28" s="0" t="inlineStr">
-        <is>
-          <t>Estrategia Prueba Reportes 001</t>
-        </is>
-      </c>
-      <c r="I28" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J28" s="0" t="inlineStr">
-        <is>
-          <t>Supuesto Prueba Reportes 001</t>
-        </is>
-      </c>
-      <c r="K28" s="0" t="inlineStr">
-        <is>
-          <t>Area 1 de la Dependencia Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="L28" s="0" t="inlineStr">
-        <is>
-          <t>Indicador Prueba Reportes 001</t>
-        </is>
-      </c>
-      <c r="M28" s="0" t="inlineStr">
-        <is>
-          <t>Prueba Reportes 001</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="4" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t>Admin </t>
-        </is>
-      </c>
-      <c r="C29" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D29" s="0" t="inlineStr">
-        <is>
-          <t>Propósito</t>
-        </is>
-      </c>
-      <c r="E29" s="0">
-        <v>5995</v>
-      </c>
-      <c r="F29" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 1</t>
-        </is>
-      </c>
-      <c r="G29" s="0" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="H29" s="0" t="inlineStr">
-        <is>
-          <t>aaaa</t>
-        </is>
-      </c>
-      <c r="I29" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J29" s="0" t="inlineStr">
-        <is>
-          <t>aaaaaa</t>
-        </is>
-      </c>
-      <c r="K29" s="0" t="inlineStr">
-        <is>
-          <t>Area 1 de la Dependencia Admin </t>
-        </is>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="4" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>Admin </t>
-        </is>
-      </c>
-      <c r="C30" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D30" s="0" t="inlineStr">
-        <is>
-          <t>Propósito</t>
-        </is>
-      </c>
-      <c r="E30" s="0">
-        <v>5992</v>
-      </c>
-      <c r="F30" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 12</t>
-        </is>
-      </c>
-      <c r="G30" s="0" t="inlineStr">
-        <is>
-          <t>ddd</t>
-        </is>
-      </c>
-      <c r="H30" s="0" t="inlineStr">
-        <is>
-          <t>gg</t>
-        </is>
-      </c>
-      <c r="I30" s="0" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J30" s="0" t="inlineStr">
-        <is>
-          <t>ggg</t>
-        </is>
-      </c>
-      <c r="K30" s="0" t="inlineStr">
-        <is>
-          <t>Area 2 de la Dependencia Admin </t>
-        </is>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="4" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C31" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D31" s="0" t="inlineStr">
-        <is>
-          <t>Propósito</t>
-        </is>
-      </c>
-      <c r="E31" s="0">
-        <v>5993</v>
-      </c>
-      <c r="F31" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 4</t>
-        </is>
-      </c>
-      <c r="G31" s="0" t="inlineStr">
-        <is>
-          <t>aaaaaa</t>
-        </is>
-      </c>
-      <c r="H31" s="0" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="I31" s="0" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J31" s="0" t="inlineStr">
-        <is>
-          <t>TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst vv</t>
-        </is>
-      </c>
-      <c r="K31" s="0" t="inlineStr">
-        <is>
-          <t>Area 1 de la Dependencia Secretaría de Finanzas</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="4" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C32" s="0">
-        <v>2022</v>
-      </c>
-      <c r="D32" s="0" t="inlineStr">
-        <is>
-          <t>Propósito</t>
-        </is>
-      </c>
-      <c r="E32" s="0">
-        <v>5991</v>
-      </c>
-      <c r="F32" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 7</t>
-        </is>
-      </c>
-      <c r="G32" s="0" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="H32" s="0" t="inlineStr">
-        <is>
-          <t>ggg</t>
-        </is>
-      </c>
-      <c r="I32" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J32" s="0" t="inlineStr">
-        <is>
-          <t>aaaa</t>
-        </is>
-      </c>
-      <c r="K32" s="0" t="inlineStr">
         <is>
           <t>Area 2</t>
         </is>

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -130,7 +130,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>06-17-2022 05:05:49 pm</t>
+          <t>06-18-2022 09:10:51 am</t>
         </is>
       </c>
     </row>
@@ -222,47 +222,922 @@
         </is>
       </c>
       <c r="E6" s="0">
-        <v>6001</v>
+        <v>5989</v>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>Cultura</t>
+          <t>Programa Presupuestario 1</t>
         </is>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>Objetivo Anual</t>
+          <t>qwewqe</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>Estrategia</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
         </is>
       </c>
       <c r="J6" s="0" t="inlineStr">
         <is>
-          <t>Supuesto 001</t>
+          <t>Supuesto</t>
         </is>
       </c>
       <c r="K6" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Finanzas</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>Indicador prueba 001</t>
+          <t>asd</t>
         </is>
       </c>
       <c r="M6" s="0" t="inlineStr">
         <is>
-          <t> Medio Verificación 001</t>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C7" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E7" s="0">
+        <v>5989</v>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>Area 2</t>
+        </is>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C8" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E8" s="0">
+        <v>5989</v>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="inlineStr">
+        <is>
+          <t>Area 2</t>
+        </is>
+      </c>
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t>EJEMPLO</t>
+        </is>
+      </c>
+      <c r="M8" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C9" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E9" s="0">
+        <v>5989</v>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto</t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t>Area 2</t>
+        </is>
+      </c>
+      <c r="L9" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1</t>
+        </is>
+      </c>
+      <c r="M9" s="0" t="inlineStr">
+        <is>
+          <t>adada</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C10" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E10" s="0">
+        <v>5989</v>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto</t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>Area 2</t>
+        </is>
+      </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>Indicador Prueba</t>
+        </is>
+      </c>
+      <c r="M10" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C11" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E11" s="0">
+        <v>5989</v>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>Area 2</t>
+        </is>
+      </c>
+      <c r="L11" s="0" t="inlineStr">
+        <is>
+          <t>Nuevo</t>
+        </is>
+      </c>
+      <c r="M11" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E12" s="0">
+        <v>5989</v>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto</t>
+        </is>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>Area 2</t>
+        </is>
+      </c>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>Nuevo Pruweba</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E13" s="0">
+        <v>5989</v>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>Area 2</t>
+        </is>
+      </c>
+      <c r="L13" s="0" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="M13" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C14" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E14" s="0">
+        <v>5989</v>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>Area 2</t>
+        </is>
+      </c>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>Prueba qwe</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C15" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E15" s="0">
+        <v>5989</v>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>Area 2</t>
+        </is>
+      </c>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C16" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E16" s="0">
+        <v>5989</v>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto</t>
+        </is>
+      </c>
+      <c r="K16" s="0" t="inlineStr">
+        <is>
+          <t>Area 2</t>
+        </is>
+      </c>
+      <c r="L16" s="0" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="M16" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C17" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E17" s="0">
+        <v>5989</v>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>Area 2</t>
+        </is>
+      </c>
+      <c r="L17" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="M17" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C18" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E18" s="0">
+        <v>5990</v>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 11</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>Area 1 de la Dependencia Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C19" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E19" s="0">
+        <v>5991</v>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 9</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>Area 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C20" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E20" s="0">
+        <v>5992</v>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 5</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>Area 1</t>
+        </is>
+      </c>
+      <c r="L20" s="0" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="M20" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -122,15 +122,28 @@
         </is>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Eje</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+    </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Eje</t>
+          <t>Objetivo del gobierno</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Gobierno Ciudadano
+          <t>Objetivo temporal Gobierno Ciudadano
 </t>
         </is>
       </c>
@@ -138,14 +151,19 @@
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Objetivo del gobierno</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+          <t>Estrategia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Estrategia</t>
+          <t>Año</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
         </is>
       </c>
     </row>
@@ -157,7 +175,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>06-18-2022 11:06:56 am</t>
+          <t>06-20-2022 11:13:18 am</t>
         </is>
       </c>
     </row>

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -108,50 +108,54 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Clasificación Programática</t>
+          <t>Programa Presupuestario</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
         </is>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>Clasificación Programática</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
           <t>Gasto de orden</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Eje</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
         </is>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>Eje</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>Objetivo del gobierno</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Objetivo temporal Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Estrategia</t>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Enfocar las acciones del Gobierno de manera correcta y transparente a través de la escucha ciudadana, el uso adecuado de los recursos, la creación de nuevas políticas públicas y de herramientas para acercar los servicios a la población, con el fin de asegurar la gobernanza y la gobernabilidad del estado.</t>
         </is>
       </c>
     </row>
@@ -170,16 +174,16 @@
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fecha:</t>
+          <t>Fecha de elaboración:</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>06-20-2022 11:13:18 am</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+          <t>06-23-2022 05:09:23 pm</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="inlineStr">
         <is>
           <t>Nivel</t>
@@ -215,21 +219,11 @@
           <t>Area Responsable</t>
         </is>
       </c>
-      <c r="H9" s="4" t="inlineStr">
-        <is>
-          <t>Programa presupuestario</t>
-        </is>
-      </c>
-      <c r="I9" s="4" t="inlineStr">
-        <is>
-          <t>Año</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B10" s="0">
@@ -246,6 +240,11 @@
           <t>Contar con el Fideicomiso para el Desarrollo Energético Sustentable</t>
         </is>
       </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6186</t>
+        </is>
+      </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -256,19 +255,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I10" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B11" s="0">
@@ -285,6 +276,11 @@
           <t>Contar con un programa de generación distribuída y abasto aislado de electricidad en edificios públicos.</t>
         </is>
       </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6187</t>
+        </is>
+      </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -295,19 +291,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I11" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B12" s="0">
@@ -324,6 +312,11 @@
           <t>Contar con una ventanilla única para la realización de trámites de proyectos de impulso al desarrollo energético</t>
         </is>
       </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6188</t>
+        </is>
+      </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -334,19 +327,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I12" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B13" s="0">
@@ -363,6 +348,11 @@
           <t>Concretar acuerdos con al menos 10 de las autoridades federales, estatales y municipales con las que se relacione la AEEQ</t>
         </is>
       </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6189</t>
+        </is>
+      </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -373,19 +363,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I13" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B14" s="0">
@@ -402,6 +384,11 @@
           <t>Contar con acuerdos, convenios, contratos y asociaciones estratégicas con al menos 15 instituciones </t>
         </is>
       </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6190</t>
+        </is>
+      </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -412,19 +399,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I14" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B15" s="0">
@@ -441,6 +420,11 @@
           <t>Porcentaje de campañas realizadas</t>
         </is>
       </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6408</t>
+        </is>
+      </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -451,19 +435,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I15" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B16" s="0">
@@ -480,6 +456,11 @@
           <t>Registros en Sistema ComSoc</t>
         </is>
       </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6409</t>
+        </is>
+      </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -490,19 +471,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I16" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B17" s="0">
@@ -519,6 +492,11 @@
           <t>Boletines de prensa alojados en http://www.queretaro.gob.mx/prensa</t>
         </is>
       </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6410</t>
+        </is>
+      </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -529,19 +507,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I17" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B18" s="0">
@@ -558,6 +528,11 @@
           <t>Gasto de mes corriente en conceptos de horas extras, reducción de primas sabatinas y dominicales de Oficialía Mayor/Gastos de mes corriente del año inmediato anerior en conceptos de horas extras, reducción de primas sabatinas y dominicales de Oficialía Mayor</t>
         </is>
       </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6411</t>
+        </is>
+      </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -568,19 +543,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I18" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B19" s="0">
@@ -597,6 +564,11 @@
           <t>Número de Servidores Públicos capacitados en alineación positiva / el número de Servidores publicos de primer nivel del sector centralizado del Poder Ejecutivo susceptible a capacitarse durante cada trimestre</t>
         </is>
       </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6412</t>
+        </is>
+      </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -607,19 +579,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I19" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B20" s="0">
@@ -636,6 +600,11 @@
           <t>Número de jubilados matriculados en servicios prestados por la casa del jubilado del trimestre corriente/Número de jubilados matriculados en servicios prestados en el mismo trimetre del año 2019</t>
         </is>
       </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6413</t>
+        </is>
+      </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -646,19 +615,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H20" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I20" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B21" s="0">
@@ -675,6 +636,11 @@
           <t>Número de manuales actualizados / Total de manuales a actualizar</t>
         </is>
       </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6414</t>
+        </is>
+      </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -685,19 +651,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H21" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I21" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B22" s="0">
@@ -714,6 +672,11 @@
           <t>Número de servicios de internet instalados durante el trimestre/ Número de servicios susceptibles a instalarse de manera adicional a lo largo del año en curso</t>
         </is>
       </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6415</t>
+        </is>
+      </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -724,19 +687,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H22" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I22" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B23" s="0">
@@ -753,6 +708,11 @@
           <t>Número de etapas concluidas en la preparación para la certificación concluidas/Número total de etapas en la preparación para la certificación</t>
         </is>
       </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6416</t>
+        </is>
+      </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -763,19 +723,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H23" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I23" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B24" s="0">
@@ -792,6 +744,11 @@
           <t>Número de informes realizados/ Número de auditorías</t>
         </is>
       </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6417</t>
+        </is>
+      </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -802,19 +759,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H24" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I24" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B25" s="0">
@@ -831,6 +780,11 @@
           <t>Expedientes con datos actualizados/ Total de expedientes de bienes inmuebles.</t>
         </is>
       </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6418</t>
+        </is>
+      </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -841,19 +795,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H25" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I25" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B26" s="0">
@@ -870,6 +816,11 @@
           <t>Número de expedientes digitalizados de servidores públicos activos/ Expedientes de servidores públicos Activos</t>
         </is>
       </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6419</t>
+        </is>
+      </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -880,19 +831,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H26" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I26" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B27" s="0">
@@ -909,6 +852,11 @@
           <t>Número de sistemas implementados contra procesos a simplificar.</t>
         </is>
       </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6420</t>
+        </is>
+      </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -919,19 +867,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H27" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I27" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B28" s="0">
@@ -948,6 +888,11 @@
           <t>Número de etapas concluidas para la puesta en marcha del aplicativo web para el arrendamiento de inmuebles a cargo de Oficialía Mayor/ Total de etapas para la puesta en marcha del portal web para el arrendamiento de inmuebles a cargo de Oficialía Mayor</t>
         </is>
       </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6421</t>
+        </is>
+      </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -958,19 +903,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H28" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I28" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B29" s="0">
@@ -987,6 +924,11 @@
           <t>Expedientes integrados de bienes muebles e inmuebles / total de expedientes de bienes muebles e inmuebles</t>
         </is>
       </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6422</t>
+        </is>
+      </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -997,19 +939,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H29" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I29" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B30" s="0">
@@ -1026,6 +960,11 @@
           <t>Porcentaje de etapas concluidas de la implentación de la plataforma digital /Total de etapas para la implementación de la plataforma digital.</t>
         </is>
       </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6423</t>
+        </is>
+      </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1036,19 +975,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H30" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I30" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B31" s="0">
@@ -1065,6 +996,11 @@
           <t>Unidades vehículares con sistema RFID instalado para la carga de combustible/ total de unidades vehiculares con codigo de barras susceptibles a cambiar de sistema de carga de cpmbustible.</t>
         </is>
       </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6424</t>
+        </is>
+      </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1075,19 +1011,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H31" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I31" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B32" s="0">
@@ -1104,6 +1032,11 @@
           <t>Total de unidades vehículares en operación /Total de unidades vehiculares suceptibles a operar.</t>
         </is>
       </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6425</t>
+        </is>
+      </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1114,19 +1047,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H32" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I32" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B33" s="0">
@@ -1143,6 +1068,11 @@
           <t>Porcentaje de vehiculos activos verificados en tiempos establecidos por la Normatividad</t>
         </is>
       </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6426</t>
+        </is>
+      </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1153,19 +1083,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H33" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I33" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B34" s="0">
@@ -1182,6 +1104,11 @@
           <t>Promedio del tiempo en servicio de servicio a unidades del Poder Ejecutivo</t>
         </is>
       </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6427</t>
+        </is>
+      </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1192,19 +1119,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H34" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I34" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B35" s="0">
@@ -1221,6 +1140,11 @@
           <t>Porcentaje de avance en la habilitación de la Autoridad certificadora respecto del total de etapas programadas</t>
         </is>
       </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6969</t>
+        </is>
+      </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1231,19 +1155,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H35" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I35" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B36" s="0">
@@ -1260,6 +1176,11 @@
           <t>Porcentaje de avance en la habilitación de la Autoridad certificadora respecto del total de etapas programadas</t>
         </is>
       </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6970</t>
+        </is>
+      </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1270,19 +1191,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H36" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I36" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B37" s="0">
@@ -1299,6 +1212,11 @@
           <t>Porcentaje de certificaciones emitidas respecto del total identificadas en el personal de  la Secretaría de Finanzas</t>
         </is>
       </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6971</t>
+        </is>
+      </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1309,19 +1227,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H37" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I37" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B38" s="0">
@@ -1338,6 +1248,11 @@
           <t>Sumatoria de aplicaciones de la firma electrónica en los procesos identificados de la Secretaría de Finanzas</t>
         </is>
       </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6972</t>
+        </is>
+      </c>
       <c r="F38" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1348,19 +1263,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H38" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I38" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B39" s="0">
@@ -1377,6 +1284,11 @@
           <t>Porcentaje de kilómetros actualizados respecto del total identificados</t>
         </is>
       </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6973</t>
+        </is>
+      </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1387,19 +1299,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H39" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I39" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B40" s="0">
@@ -1416,6 +1320,11 @@
           <t>Sumatoria de Consultas a la página web de Catastro </t>
         </is>
       </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6974</t>
+        </is>
+      </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1426,19 +1335,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H40" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I40" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B41" s="0">
@@ -1455,6 +1356,11 @@
           <t>Sumatoria de Consultas a la página web de Catastro </t>
         </is>
       </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6975</t>
+        </is>
+      </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1465,19 +1371,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H41" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I41" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B42" s="0">
@@ -1494,6 +1392,11 @@
           <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
         </is>
       </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6976</t>
+        </is>
+      </c>
       <c r="F42" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1504,19 +1407,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H42" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I42" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B43" s="0">
@@ -1533,6 +1428,11 @@
           <t>Porcentaje de documentos normativos de TI modificados o creados respecto del total identificados que requieren actualización</t>
         </is>
       </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6977</t>
+        </is>
+      </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1543,19 +1443,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H43" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I43" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B44" s="0">
@@ -1572,6 +1464,11 @@
           <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022</t>
         </is>
       </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6978</t>
+        </is>
+      </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1582,19 +1479,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H44" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I44" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B45" s="0">
@@ -1611,6 +1500,11 @@
           <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2023</t>
         </is>
       </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6979</t>
+        </is>
+      </c>
       <c r="F45" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1621,19 +1515,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H45" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I45" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B46" s="0">
@@ -1650,6 +1536,11 @@
           <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2024</t>
         </is>
       </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6980</t>
+        </is>
+      </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1660,19 +1551,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H46" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I46" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B47" s="0">
@@ -1689,6 +1572,11 @@
           <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2025</t>
         </is>
       </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6981</t>
+        </is>
+      </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1699,19 +1587,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H47" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I47" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B48" s="0">
@@ -1728,6 +1608,11 @@
           <t>Porcentaje de etapas realizadas en la elaboración y aprobación de la ley respecto del total de etapas proyectadas</t>
         </is>
       </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6982</t>
+        </is>
+      </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1738,19 +1623,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H48" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I48" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B49" s="0">
@@ -1767,6 +1644,11 @@
           <t>Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar</t>
         </is>
       </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6983</t>
+        </is>
+      </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1777,19 +1659,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H49" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I49" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B50" s="0">
@@ -1806,6 +1680,11 @@
           <t>Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar</t>
         </is>
       </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6984</t>
+        </is>
+      </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1816,19 +1695,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H50" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I50" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B51" s="0">
@@ -1845,6 +1716,11 @@
           <t>Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar</t>
         </is>
       </c>
+      <c r="E51" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6985</t>
+        </is>
+      </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1855,19 +1731,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H51" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I51" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B52" s="0">
@@ -1884,6 +1752,11 @@
           <t>Mantener la Calificación crediticia de la Entidad</t>
         </is>
       </c>
+      <c r="E52" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6986</t>
+        </is>
+      </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1894,19 +1767,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H52" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I52" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B53" s="0">
@@ -1923,6 +1788,11 @@
           <t>Mantener la Calificación crediticia de la Entidad</t>
         </is>
       </c>
+      <c r="E53" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6987</t>
+        </is>
+      </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1933,19 +1803,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H53" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I53" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B54" s="0">
@@ -1962,6 +1824,11 @@
           <t>Mantener la Calificación crediticia de la Entidad</t>
         </is>
       </c>
+      <c r="E54" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6988</t>
+        </is>
+      </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -1972,19 +1839,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H54" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I54" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B55" s="0">
@@ -2001,6 +1860,11 @@
           <t>Mantener la Calificación crediticia de la Entidad</t>
         </is>
       </c>
+      <c r="E55" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6989</t>
+        </is>
+      </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2011,19 +1875,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H55" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I55" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B56" s="0">
@@ -2040,6 +1896,11 @@
           <t>Mantener la Calificación crediticia de la Entidad</t>
         </is>
       </c>
+      <c r="E56" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6990</t>
+        </is>
+      </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2050,19 +1911,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H56" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I56" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B57" s="0">
@@ -2079,6 +1932,11 @@
           <t>Monto de los recursos subastados a través del Portal web público</t>
         </is>
       </c>
+      <c r="E57" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6991</t>
+        </is>
+      </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2089,19 +1947,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H57" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I57" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B58" s="0">
@@ -2118,6 +1968,11 @@
           <t>Monto de los recursos subastados a través del Portal web público</t>
         </is>
       </c>
+      <c r="E58" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6992</t>
+        </is>
+      </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2128,19 +1983,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H58" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I58" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B59" s="0">
@@ -2157,6 +2004,11 @@
           <t>Monto de los recursos subastados a través del Portal web público</t>
         </is>
       </c>
+      <c r="E59" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6993</t>
+        </is>
+      </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2167,19 +2019,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H59" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I59" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B60" s="0">
@@ -2196,6 +2040,11 @@
           <t>Monto de los recursos subastados a través del Portal web público</t>
         </is>
       </c>
+      <c r="E60" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6994</t>
+        </is>
+      </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2206,19 +2055,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H60" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I60" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B61" s="0">
@@ -2235,6 +2076,11 @@
           <t>Monto acumulado de contribuciones estatales</t>
         </is>
       </c>
+      <c r="E61" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6995</t>
+        </is>
+      </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2245,19 +2091,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H61" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I61" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B62" s="0">
@@ -2274,6 +2112,11 @@
           <t>Porcentaje de trámites agilizados con respecto al total de trámites detectados </t>
         </is>
       </c>
+      <c r="E62" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6996</t>
+        </is>
+      </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2284,19 +2127,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H62" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I62" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B63" s="0">
@@ -2313,6 +2148,11 @@
           <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
         </is>
       </c>
+      <c r="E63" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6997</t>
+        </is>
+      </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2323,19 +2163,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H63" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I63" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B64" s="0">
@@ -2352,6 +2184,11 @@
           <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
         </is>
       </c>
+      <c r="E64" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6998</t>
+        </is>
+      </c>
       <c r="F64" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2362,19 +2199,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H64" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I64" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B65" s="0">
@@ -2391,6 +2220,11 @@
           <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
         </is>
       </c>
+      <c r="E65" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6999</t>
+        </is>
+      </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2401,19 +2235,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H65" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I65" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B66" s="0">
@@ -2430,6 +2256,11 @@
           <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
         </is>
       </c>
+      <c r="E66" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7000</t>
+        </is>
+      </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2440,19 +2271,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H66" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I66" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B67" s="0">
@@ -2469,6 +2292,11 @@
           <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
         </is>
       </c>
+      <c r="E67" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7001</t>
+        </is>
+      </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2479,19 +2307,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H67" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I67" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B68" s="0">
@@ -2508,6 +2328,11 @@
           <t>Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales</t>
         </is>
       </c>
+      <c r="E68" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7002</t>
+        </is>
+      </c>
       <c r="F68" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2518,19 +2343,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H68" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I68" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B69" s="0">
@@ -2547,6 +2364,11 @@
           <t>Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales</t>
         </is>
       </c>
+      <c r="E69" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7003</t>
+        </is>
+      </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2557,19 +2379,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H69" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I69" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B70" s="0">
@@ -2586,6 +2400,11 @@
           <t>Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales</t>
         </is>
       </c>
+      <c r="E70" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7004</t>
+        </is>
+      </c>
       <c r="F70" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2596,19 +2415,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H70" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I70" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B71" s="0">
@@ -2625,6 +2436,11 @@
           <t>Porcentaje de Impuestos respecto del total de Ingresos Propios</t>
         </is>
       </c>
+      <c r="E71" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7005</t>
+        </is>
+      </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2635,19 +2451,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H71" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I71" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B72" s="0">
@@ -2664,6 +2472,11 @@
           <t>Porcentaje de Impuestos respecto del total de Ingresos Propios</t>
         </is>
       </c>
+      <c r="E72" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7006</t>
+        </is>
+      </c>
       <c r="F72" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2674,19 +2487,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H72" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I72" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B73" s="0">
@@ -2703,6 +2508,11 @@
           <t>Calificación promedio que otorgan las y los Enlaces a los procesos y formatos elaborados por la UESED</t>
         </is>
       </c>
+      <c r="E73" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7007</t>
+        </is>
+      </c>
       <c r="F73" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2713,19 +2523,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H73" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I73" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B74" s="0">
@@ -2742,6 +2544,11 @@
           <t>Calificación promedio que otorgan las y los participantes en las encuestas de satisfacción a las capacitaciones, cursos y talleres realizados en materia de GpR, PbR y SED por la UESED</t>
         </is>
       </c>
+      <c r="E74" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7008</t>
+        </is>
+      </c>
       <c r="F74" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2752,19 +2559,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H74" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I74" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B75" s="0">
@@ -2781,6 +2580,11 @@
           <t>Porcentaje de indicadores de desempeño revisados con respecto al total de indicadores de desempeño de PbR</t>
         </is>
       </c>
+      <c r="E75" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7009</t>
+        </is>
+      </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2791,19 +2595,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H75" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I75" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B76" s="0">
@@ -2820,6 +2616,11 @@
           <t>Subir puntuación en el Subindicador de políticas del Indicador Nacional de Mejora Regulatoria al 100, considerando la calificación actual es de 87.</t>
         </is>
       </c>
+      <c r="E76" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7034</t>
+        </is>
+      </c>
       <c r="F76" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2830,19 +2631,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H76" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I76" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B77" s="0">
@@ -2859,6 +2652,11 @@
           <t>Total de lineamientos publicados/Total de lineamientos elaborados</t>
         </is>
       </c>
+      <c r="E77" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7035</t>
+        </is>
+      </c>
       <c r="F77" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2869,19 +2667,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H77" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I77" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B78" s="0">
@@ -2900,6 +2690,11 @@
 3. Regulaciones dictaminadas/Regulaciones publicadas.</t>
         </is>
       </c>
+      <c r="E78" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7036</t>
+        </is>
+      </c>
       <c r="F78" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2910,19 +2705,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H78" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I78" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B79" s="0">
@@ -2939,6 +2726,11 @@
           <t>Total de anteproyectos con costos analizadas /Total de anteproyectos recibidos</t>
         </is>
       </c>
+      <c r="E79" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7037</t>
+        </is>
+      </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2949,19 +2741,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H79" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I79" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B80" s="0">
@@ -2978,6 +2762,11 @@
           <t>Total de propuestas regulatorias inscritas en Agenda Regulatoria/ Total de excepciones de Agenda Regulatoria solicitadas</t>
         </is>
       </c>
+      <c r="E80" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7038</t>
+        </is>
+      </c>
       <c r="F80" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -2988,19 +2777,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H80" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I80" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B81" s="0">
@@ -3017,6 +2798,11 @@
           <t>Total de eventos realizados/Eventos programados</t>
         </is>
       </c>
+      <c r="E81" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7039</t>
+        </is>
+      </c>
       <c r="F81" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -3027,19 +2813,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H81" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I81" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B82" s="0">
@@ -3056,6 +2834,11 @@
           <t>Total de diagnósticos elaborados/ Total de diagnósticos programados</t>
         </is>
       </c>
+      <c r="E82" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7040</t>
+        </is>
+      </c>
       <c r="F82" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -3066,19 +2849,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H82" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I82" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B83" s="0">
@@ -3095,6 +2870,11 @@
           <t>Total de trámites actualizados/Total de trámites inscritos</t>
         </is>
       </c>
+      <c r="E83" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7041</t>
+        </is>
+      </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -3105,19 +2885,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H83" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I83" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B84" s="0">
@@ -3134,6 +2906,11 @@
           <t>Total de Campos actualizados/ Total de campos solicitados</t>
         </is>
       </c>
+      <c r="E84" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7042</t>
+        </is>
+      </c>
       <c r="F84" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -3144,19 +2921,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H84" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I84" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B85" s="0">
@@ -3173,6 +2942,11 @@
           <t>Total de Campos actualizados/ Total de campos solicitados</t>
         </is>
       </c>
+      <c r="E85" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7043</t>
+        </is>
+      </c>
       <c r="F85" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -3183,19 +2957,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H85" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I85" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B86" s="0">
@@ -3212,6 +2978,11 @@
           <t>Total de Responsables Oficiales registrados/ Total de Responsables oficiales</t>
         </is>
       </c>
+      <c r="E86" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7044</t>
+        </is>
+      </c>
       <c r="F86" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -3222,19 +2993,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H86" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I86" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B87" s="0">
@@ -3251,6 +3014,11 @@
           <t>Total de Responsables Oficiales capacitados/ total de Responsables Oficiales existentes</t>
         </is>
       </c>
+      <c r="E87" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7045</t>
+        </is>
+      </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -3261,19 +3029,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H87" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I87" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B88" s="0">
@@ -3290,6 +3050,11 @@
           <t>Trámites digitalizados / Trámites identificados en el diagnóstico de la OCDE</t>
         </is>
       </c>
+      <c r="E88" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7046</t>
+        </is>
+      </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
           <t>Supuesto 001</t>
@@ -3300,19 +3065,11 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H88" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I88" s="0">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B89" s="0">
@@ -3331,7 +3088,7 @@
       </c>
       <c r="E89" s="0" t="inlineStr">
         <is>
-          <t> Medio Verificación 001</t>
+          <t>Medio verifica Indicador 7456</t>
         </is>
       </c>
       <c r="F89" s="0" t="inlineStr">
@@ -3343,14 +3100,6 @@
         <is>
           <t>Secretaría de Finanzas</t>
         </is>
-      </c>
-      <c r="H89" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="I89" s="0">
-        <v>2022</v>
       </c>
     </row>
   </sheetData>

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -120,17 +120,27 @@
         </is>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Clasificación Programática</t>
         </is>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Programable</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Gasto de orden</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Desempeño de las Funciones</t>
         </is>
       </c>
     </row>
@@ -153,6 +163,11 @@
           <t>Objetivo del gobierno</t>
         </is>
       </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="inlineStr">
@@ -174,7 +189,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>07-04-2022 03:08:24 pm</t>
+          <t>07-04-2022 05:37:52 pm</t>
         </is>
       </c>
     </row>

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -28,11 +28,6 @@
     </font>
     <font>
       <sz val="22"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -73,14 +68,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -99,7 +91,7 @@
       </c>
       <c r="B1" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Finanzas</t>
+          <t>Aeropuerto Internacional de Querétaro</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
@@ -116,7 +108,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Energía</t>
+          <t>Desarrollo Aeroportuario</t>
         </is>
       </c>
     </row>
@@ -150,10 +142,9 @@
           <t>Eje</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Economía Dinámica y Prosperidad Familiar</t>
         </is>
       </c>
     </row>
@@ -165,7 +156,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>Objetivo temporaPropiciar condiciones, oportunidades y apoyos para mantener el ritmo de crecimiento económico dinámico, sostenible, equilibrado y equitativo que incremente la prosperidad de las familias queretanas y estimule la competitividad de los sectores económicos.</t>
         </is>
       </c>
     </row>
@@ -189,42 +180,42 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>07-04-2022 05:37:52 pm</t>
+          <t>07-04-2022 11:13:20 pm</t>
         </is>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Nivel</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>Clave</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Resumen</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>Indicadores</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>Medios de verificación</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>Supuestos</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>Area Responsable</t>
         </is>
@@ -233,65 +224,35 @@
     <row r="10" spans="1:7">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>Fin</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B10" s="0">
-        <v>5512</v>
+        <v>5366</v>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+          <t>Estudio de rutas potenciales de aviación comercial de pasajeros</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>Tesk 001</t>
+          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
         </is>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B11" s="0">
-        <v>6161</v>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>Indicador K</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>medio</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>Actividad Karen POA</t>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
+          <t>Aeropuerto Internacional de Querétaro</t>
         </is>
       </c>
     </row>

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -106,11 +106,6 @@
           <t>Programa Presupuestario</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>Desarrollo Aeroportuario</t>
-        </is>
-      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="inlineStr">
@@ -118,11 +113,6 @@
           <t>Clasificación Programática</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>Programable</t>
-        </is>
-      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="inlineStr">
@@ -130,11 +120,6 @@
           <t>Gasto de orden</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>Desempeño de las Funciones</t>
-        </is>
-      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="inlineStr">
@@ -180,7 +165,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>07-04-2022 11:13:20 pm</t>
+          <t>07-05-2022 03:33:23 am</t>
         </is>
       </c>
     </row>
@@ -224,33 +209,98 @@
     <row r="10" spans="1:7">
       <c r="A10" s="0" t="inlineStr">
         <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B10" s="0">
+        <v>5363</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>6.2 Fomentar finanzas públicas sanas</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Monto de ingresos aeronáuticos </t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>Aeropuerto Internacional de Querétaro</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
           <t>Componente</t>
         </is>
       </c>
-      <c r="B10" s="0">
+      <c r="B11" s="0">
         <v>5366</v>
       </c>
-      <c r="C10" s="0" t="inlineStr">
+      <c r="C11" s="0" t="inlineStr">
         <is>
           <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
         </is>
       </c>
-      <c r="D10" s="0" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>Estudio de rutas potenciales de aviación comercial de pasajeros</t>
         </is>
       </c>
-      <c r="E10" s="0" t="inlineStr">
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="F10" s="0" t="inlineStr">
+      <c r="F11" s="0" t="inlineStr">
         <is>
           <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
         </is>
       </c>
-      <c r="G10" s="0" t="inlineStr">
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>Aeropuerto Internacional de Querétaro</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B12" s="0">
+        <v>5368</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Instalación de radar</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
         <is>
           <t>Aeropuerto Internacional de Querétaro</t>
         </is>

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -28,6 +28,11 @@
     </font>
     <font>
       <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -68,11 +73,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -91,7 +99,7 @@
       </c>
       <c r="B1" s="0" t="inlineStr">
         <is>
-          <t>Aeropuerto Internacional de Querétaro</t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
@@ -106,203 +114,178 @@
           <t>Programa Presupuestario</t>
         </is>
       </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Clasificación Programática</t>
+          <t>Clasificación Programatica (Grupo de Gasto)</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Programable</t>
         </is>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Gasto de orden</t>
+          <t>Clasificación Programatica (Grupo de Programa)</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Desempeño de las Funciones</t>
         </is>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Eje</t>
+          <t>Clasificación Programatica (Modalidad)</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Economía Dinámica y Prosperidad Familiar</t>
+          <t>P - Planeación, formulación, implementación, seguimiento y evaluación de políticas públicas</t>
         </is>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Objetivo del gobierno</t>
+          <t>Gasto de orden</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>Objetivo temporaPropiciar condiciones, oportunidades y apoyos para mantener el ritmo de crecimiento económico dinámico, sostenible, equilibrado y equitativo que incremente la prosperidad de las familias queretanas y estimule la competitividad de los sectores económicos.</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Año</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>2022</t>
+          <t>Eje</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
         </is>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>Objetivo del gobierno</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Generar condiciones de paz y tranquilidad para la ciudadanía, preservando en todo momento el Estado de derecho y cumpliendo el mandato de brindar protección a las personas y sus bienes, garantizando el derecho de acceso a la justicia, promoviendo la mediación comunitaria y aplicando la ley a cabalidad, privilegiando la rendición de cuentas y la participación comunitaria.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Año</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>Fecha de elaboración:</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>07-05-2022 03:33:23 am</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>07-05-2022 05:47:13 pm</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>Nivel</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Clave</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Resumen</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>Indicadores</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>Medios de verificación</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>Supuestos</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t>Area Responsable</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B10" s="0">
-        <v>5363</v>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>6.2 Fomentar finanzas públicas sanas</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>Monto de ingresos aeronáuticos </t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="G10" s="0" t="inlineStr">
-        <is>
-          <t>Aeropuerto Internacional de Querétaro</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>Componente</t>
-        </is>
-      </c>
-      <c r="B11" s="0">
-        <v>5366</v>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>Estudio de rutas potenciales de aviación comercial de pasajeros</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr">
-        <is>
-          <t>Aeropuerto Internacional de Querétaro</t>
         </is>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B12" s="0">
-        <v>5368</v>
+        <v>5512</v>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>Instalación de radar</t>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>wefewf</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>Tesk 001</t>
         </is>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>Aeropuerto Internacional de Querétaro</t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
     </row>

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -97,11 +97,6 @@
           <t>Organismo</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
           <t>REPORTE MIR</t>
@@ -114,11 +109,6 @@
           <t>Programa Presupuestario</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>Energía</t>
-        </is>
-      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="inlineStr">
@@ -126,11 +116,6 @@
           <t>Clasificación Programatica (Grupo de Gasto)</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>Programable</t>
-        </is>
-      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="inlineStr">
@@ -138,11 +123,6 @@
           <t>Clasificación Programatica (Grupo de Programa)</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>Desempeño de las Funciones</t>
-        </is>
-      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="inlineStr">
@@ -150,11 +130,6 @@
           <t>Clasificación Programatica (Modalidad)</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>P - Planeación, formulación, implementación, seguimiento y evaluación de políticas públicas</t>
-        </is>
-      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="inlineStr">
@@ -162,11 +137,6 @@
           <t>Gasto de orden</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="inlineStr">
@@ -213,7 +183,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>07-05-2022 05:47:13 pm</t>
+          <t>07-07-2022 11:42:47 am</t>
         </is>
       </c>
     </row>
@@ -257,33 +227,63 @@
     <row r="12" spans="1:7">
       <c r="A12" s="0" t="inlineStr">
         <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B12" s="0">
+        <v>5612</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de POA alineados con el Plan Estatal de Desarrollo 2021-2027</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Planeación y Particiación Ciudadana</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
           <t>Fin</t>
         </is>
       </c>
-      <c r="B12" s="0">
+      <c r="B13" s="0">
         <v>5512</v>
       </c>
-      <c r="C12" s="0" t="inlineStr">
+      <c r="C13" s="0" t="inlineStr">
         <is>
           <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
         </is>
       </c>
-      <c r="D12" s="0" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr">
         <is>
           <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
         </is>
       </c>
-      <c r="E12" s="0" t="inlineStr">
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>wefewf</t>
         </is>
       </c>
-      <c r="F12" s="0" t="inlineStr">
+      <c r="F13" s="0" t="inlineStr">
         <is>
           <t>Tesk 001</t>
         </is>
       </c>
-      <c r="G12" s="0" t="inlineStr">
+      <c r="G13" s="0" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
         </is>

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -33,15 +33,15 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <b/>
       <i/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -77,10 +77,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -144,10 +144,9 @@
           <t>Eje</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Salud y Vida Digna</t>
         </is>
       </c>
     </row>
@@ -159,7 +158,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Generar condiciones de paz y tranquilidad para la ciudadanía, preservando en todo momento el Estado de derecho y cumpliendo el mandato de brindar protección a las personas y sus bienes, garantizando el derecho de acceso a la justicia, promoviendo la mediación comunitaria y aplicando la ley a cabalidad, privilegiando la rendición de cuentas y la participación comunitaria.</t>
+          <t>Generar condiciones que promuevan la movilidad social, el desarrollo humano trascendental y el respeto a la dignidad de las personas y grupos que integran la sociedad queretana.</t>
         </is>
       </c>
     </row>
@@ -183,42 +182,42 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>07-07-2022 11:42:47 am</t>
+          <t>07-09-2022 08:59:28 pm</t>
         </is>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Nivel</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>Clave</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Resumen</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>Indicadores</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>Medios de verificación</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>Supuestos</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>Area Responsable</t>
         </is>
@@ -227,65 +226,886 @@
     <row r="12" spans="1:7">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B12" s="0">
-        <v>5612</v>
+        <v>5496</v>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>6 Gobierno Ciudadano</t>
+          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria de POA alineados con el Plan Estatal de Desarrollo 2021-2027</t>
+          <t>Porcentaje de detecciones de Virus de Inmunodeficiencia Humana (VIH) en población clave con factores de riesgo de 15 a 49 años sin seguridad social con respecto al total de la población clave con factores de riesgo de 15 a 49 años sin seguridad social</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>La población objetivo participa en actividades de prevención, detección y atención de enfermedades.</t>
         </is>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Planeación y Particiación Ciudadana</t>
+          <t>Servicios de Salud de Estado de Querétaro</t>
         </is>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>Fin</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B13" s="0">
-        <v>5512</v>
+        <v>5496</v>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>wefewf</t>
+          <t>Porcentaje de pacientes sin seguridad social con Hipertensión Arterial Sistémica que logran la meta del tratamiento (controlados) con respecto al total de pacientes sin seguridad social con Hipertensión Arterial Sistémica                         </t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>Tesk 001</t>
+          <t>La población objetivo participa en actividades de prevención, detección y atención de enfermedades.</t>
         </is>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Finanzas</t>
+          <t>Servicios de Salud de Estado de Querétaro</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B14" s="0">
+        <v>5496</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>Porcentaje de población de 20 años y más sin seguridad social a quién se realizó detección de Diabetes Mellitus con respecto al total de la población de 20 años y más sin seguridad social
+</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Detecciones de Diabetes Mellitus/ Emite: Área de Estadística de la Dirección de Planeación/ Ubicación electrónica</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>La población objetivo participa en actividades de prevención, detección y atención de enfermedades.</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>Servicios de Salud de Estado de Querétaro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B15" s="0">
+        <v>5497</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.3 Proveer atención integral a la salud de los y las pacientes</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de población sin seguridad social residente en Querétaro, que recibe consulta médica de primera vez en el año en primer y segundo nivel de atención con respecto al total de población sin seguridad social residente en Querétaro</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>Área de Estadística de la Dirección de Planeación/Ubicación electrónica</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>Servicios de Salud del Estado de Querétaro cuenta con los recursos humanos y financieros suficientes para el otorgamiento de la atención médica de primer y segundo nivel.</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>Servicios de Salud de Estado de Querétaro</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B16" s="0">
+        <v>5498</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de nacidos vivos por cesárea de mujeres sin seguridad social en hospitales de segundo nivel de atención</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>Se atiende a la población que requiere atención de salud mental con el personal disponible.</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>Servicios de Salud de Estado de Querétaro</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B17" s="0">
+        <v>5498</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de ocupación hospitalaria en segundo nivel de atención</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>Se atiende a la población que requiere atención de salud mental con el personal disponible.</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>Servicios de Salud de Estado de Querétaro</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B18" s="0">
+        <v>5498</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>Promedio de atenciones de salud mental otorgadas a la población sin seguridad social con respecto al total de personal de salud mental</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>Sistema de Información en Salud (SIS)</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>Se atiende a la población que requiere atención de salud mental con el personal disponible.</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>Servicios de Salud de Estado de Querétaro</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B19" s="0">
+        <v>5498</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>Promedio de estudios de laboratorio por paciente en segundo nivel de atención médica de población sin seguridad social</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>Se atiende a la población que requiere atención de salud mental con el personal disponible.</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>Servicios de Salud de Estado de Querétaro</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B20" s="0">
+        <v>5498</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>Promedio diario de intervenciones quirúrgicas por quirófano</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>Se atiende a la población que requiere atención de salud mental con el personal disponible.</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>Servicios de Salud de Estado de Querétaro</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B21" s="0">
+        <v>5500</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.6 Regularizar los esquemas de vacunación en la población.</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de niños y niñas de un año de edad, sin seguridad social residentes en Querétaro que cuentan con el esquema básico de vacunación completo con respecto al total de niños y niñas de un año de edad sin seguridad social residentes en Querétaro</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>Dosis Aplicada (RDA)/Emite: Área de Estadística de la Dirección de Planeación/Ubicación electrónica</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>La población objetivo participa en el autocuidado de su salud y Servicios de Salud del Estado recibe los insumos necesarios de manera oportuna y suficiente de la federación para las acciones de prevención y promoción.</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>Servicios de Salud de Estado de Querétaro</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B22" s="0">
+        <v>5502</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de mujeres de 35 a 64 años de edad sin seguridad social a quién se realizó detección de Virus del Papiloma Humano (VPH) con respecto al total de mujeres de 35 a 64 años de edad sin seguridad social</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>El Centro Nacional de Equidad de Género y Salud Reproductiva abastece los insumos necesarios de manera oportuna y suficiente, para realizar las detecciones a la población objetivo de la entidad.</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>Servicios de Salud de Estado de Querétaro</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B23" s="0">
+        <v>5502</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de mujeres de 40 a 69 años de edad sin seguridad social a quién se realizó estudio de mastografía con respecto al total de mujeres de 40 a 69 años de edad sin seguridad social                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>El Centro Nacional de Equidad de Género y Salud Reproductiva abastece los insumos necesarios de manera oportuna y suficiente, para realizar las detecciones a la población objetivo de la entidad.</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>Servicios de Salud de Estado de Querétaro</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B24" s="0">
+        <v>5503</v>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.3 Implementar y difundir estrategias para la disminución de los riesgos para la salud.</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de establecimientos de servicio de alimentos con condiciones sanitarias seguras con respecto al total de establecimientos de servicio de alimentos</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>Verificaciones Sanitarias del período/Emite: Subdirección de Información y Manejo de Riesgos de la Dirección de Protección Contra Riesgos Sanitarios/Ubicación electrónica</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>Las instituciones publicas y privadas participan en la mejora de los servicios que se otorgan en el Estado de Querétaro en pro de cuidado la salud de los queretanos.</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>Servicios de Salud de Estado de Querétaro</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B25" s="0">
+        <v>5428</v>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t> Sumatoria de cursos de prevención de adicciones realizados</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>Plataforma de Secretaria de la Juventud https://sejuve.queretaro.gob.mx/out/home/sejuve</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Juventud</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B26" s="0">
+        <v>5428</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de conferencias de prevención de accidentes espacios recidientes en linea realizados</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Juventud</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B27" s="0">
+        <v>5428</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de conferencias de salud sexual y reproductiva para jóvenes de 12 a 29 años otorgadas </t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Juventud</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B28" s="0">
+        <v>5428</v>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de conferencias nutricionales otorgadas</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Juventud</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B29" s="0">
+        <v>5428</v>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de consultas de salud sexual y reproductiva para jóvenes de 12 a 29 años otorgadas </t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>Plataforma de Secretaria de la Juventud https://sejuve.queretaro.gob.mx/out/home/sejuve</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Juventud</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B30" s="0">
+        <v>5428</v>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de consultas nutricionales otorgadas</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Juventud</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B31" s="0">
+        <v>5428</v>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de consultas psicológicas vía chat otorgadas</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>Plataforma de Secretaria de la Juventud https://sejuve.queretaro.gob.mx/out/home/sejuve</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Juventud</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B32" s="0">
+        <v>5428</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de consultas psicológicas vía presencial otorgadas</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Juventud</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B33" s="0">
+        <v>5428</v>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de consultas psicológicas vía telefónica otorgadas</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Juventud</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B34" s="0">
+        <v>5428</v>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de cursos de consumo responsable de alcohol realizados</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+      <c r="G34" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Juventud</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B35" s="0">
+        <v>5428</v>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de cursos de prevención del suicidio realizados</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Juventud</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B36" s="0">
+        <v>5428</v>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de cursos de salud sexual y reproductiva para jóvenes de 12 a 29 años otorgadas </t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Juventud</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B37" s="0">
+        <v>5428</v>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de cursos nutricionales otorgadas</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+      <c r="G37" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Juventud</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B38" s="0">
+        <v>5428</v>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de psicoterapias por medio de video conferencias otorgadas</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+      <c r="G38" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Juventud</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B39" s="0">
+        <v>5428</v>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de psicoterapias presenciales otorgadas</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+      <c r="G39" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Juventud</t>
         </is>
       </c>
     </row>

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -97,6 +97,11 @@
           <t>Organismo</t>
         </is>
       </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
           <t>REPORTE MIR</t>
@@ -183,7 +188,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>07-11-2022 10:03:34 am</t>
+          <t>07-12-2022 08:46:56 am</t>
         </is>
       </c>
     </row>
@@ -231,26 +236,31 @@
         </is>
       </c>
       <c r="B12" s="0">
-        <v>4974</v>
+        <v>5517</v>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
+          <t>5 Paz y Respeto a la Ley</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de etapas concluidas del aplicativo web para el arrendamiento de inmuebles con respecto al total de etapas propuestas para el portal web para el arrendamiento de inmuebles</t>
+          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>Bitácora digital de avances del proyecto</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>Proporcionar una plataforma web del AJOD y del Estadio Corregidora para el mes de diciembre del presente.</t>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
     </row>
@@ -261,26 +271,26 @@
         </is>
       </c>
       <c r="B13" s="0">
-        <v>4976</v>
+        <v>5517</v>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
+          <t>5 Paz y Respeto a la Ley</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de etapas concluidas de la implentación de la plataforma digital con Total de etapas para la implementación de la plataforma digital</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>Bitácora digital de avances del proyecto</t>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>Cumplir para el mes de noviembre con las adecuaciones solicitadas por la Dirección de Adquisiciones</t>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
     </row>
@@ -291,26 +301,31 @@
         </is>
       </c>
       <c r="B14" s="0">
-        <v>5889</v>
+        <v>5517</v>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>6.1.1.1 Fortalecer la transparencia institucional y el acceso a la información.</t>
+          <t>5 Paz y Respeto a la Ley</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de supervisiones realizadas con respecto al total de supervisiones programadas para los Órganos Internos de Control</t>
+          <t>Porcentaje test</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>Minutas de trabajo de las Supervisiones realizadas a los Órganos Internos de Control</t>
+          <t>aaa</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>Los Órganos Internos  de Control entregan la información y soportes documentales para la Supervisión.</t>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
     </row>
@@ -321,26 +336,26 @@
         </is>
       </c>
       <c r="B15" s="0">
-        <v>5893</v>
+        <v>5517</v>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>6.1.1.1 Fortalecer la transparencia institucional y el acceso a la información.</t>
+          <t>5 Paz y Respeto a la Ley</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma, con respecto al total de servidores públicos obligados</t>
-        </is>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>Aplicación WEB SEMOD (Seguimiento de movimientos y declaraciones) y Padrón de Servidores Públicos Obligados</t>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>Los servidores públicos del Poder Ejecutivo del Estado de Querétaro conocen la obligación de dar cumplimiento a la presentación de la declaración de modificación de situación patrimonial y de interés de inicio y/o conclusión, así como la fecha límite de presentación. El sistema informático para la presentación de la declaración de modificación de situación patrimonial y de intereses, tiene las condiciones tecnológicas cubiertas. </t>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
     </row>
@@ -351,197 +366,56 @@
         </is>
       </c>
       <c r="B16" s="0">
-        <v>6424</v>
+        <v>5522</v>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+          <t>1 Salud y Vida Digna</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>INDICADOR ESZ 1</t>
-        </is>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>23</t>
+          <t>Calificación crediticia de la Entidad</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>TEST ESZ</t>
+          <t>Supuesto</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
     </row>
     <row r="17" spans="1:7">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
       <c r="B17" s="0">
-        <v>6426</v>
+        <v>5529</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>2 Educación, Cultura y Deporte</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
+        </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>bb</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="B18" s="0">
-        <v>6428</v>
-      </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t>jbjhbkjbkjkjbkb</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="B19" s="0">
-        <v>6429</v>
-      </c>
-      <c r="F19" s="0" t="inlineStr">
-        <is>
-          <t>MBLJHB</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" s="0">
-        <v>6434</v>
-      </c>
-      <c r="F20" s="0" t="inlineStr">
-        <is>
-          <t>Hola Mundo</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>Componente</t>
-        </is>
-      </c>
-      <c r="B21" s="0">
-        <v>6435</v>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
-        </is>
-      </c>
-      <c r="F21" s="0" t="inlineStr">
-        <is>
-          <t>Hola Mundo</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>Componente</t>
-        </is>
-      </c>
-      <c r="B22" s="0">
-        <v>5512</v>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>3 Economía Dinámica y Prosperidad Familiar </t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
-        </is>
-      </c>
-      <c r="E22" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="F22" s="0" t="inlineStr">
-        <is>
-          <t>ad</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B23" s="0">
-        <v>6442</v>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
-        </is>
-      </c>
-      <c r="F23" s="0" t="inlineStr">
-        <is>
-          <t>Actividad padre 2 SF</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="0">
-        <v>6440</v>
-      </c>
-      <c r="D24" s="0" t="inlineStr">
-        <is>
-          <t>Indicador hija 3 SF</t>
-        </is>
-      </c>
-      <c r="E24" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="F24" s="0" t="inlineStr">
-        <is>
-          <t>Actividad hija SF 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="0">
-        <v>6440</v>
-      </c>
-      <c r="D25" s="0" t="inlineStr">
-        <is>
-          <t>Indicador hija 2 SF</t>
-        </is>
-      </c>
-      <c r="E25" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t>Actividad hija SF 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="0">
-        <v>6440</v>
-      </c>
-      <c r="D26" s="0" t="inlineStr">
-        <is>
-          <t>Indicador hija 1 SF</t>
-        </is>
-      </c>
-      <c r="E26" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="F26" s="0" t="inlineStr">
-        <is>
-          <t>Actividad hija SF 1</t>
+          <t>Aprovechar los recursos propios</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
     </row>

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -188,7 +188,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>07-12-2022 08:46:56 am</t>
+          <t>07-12-2022 09:20:16 am</t>
         </is>
       </c>
     </row>
@@ -280,7 +280,12 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>Monto de los recursos subastados a través del Portal web público</t>
+          <t>Monto de los recursos subastados a través del Portal web público TEST</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
@@ -345,7 +350,12 @@
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>Monto de los recursos subastados a través del Portal web público</t>
+          <t>Monto de los recursos subastados a través del Portal web público TEST</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
@@ -405,7 +415,12 @@
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>Monto de los recursos subastados a través del Portal web público</t>
+          <t>Monto de los recursos subastados a través del Portal web público TEST</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -188,7 +188,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>07-12-2022 09:20:16 am</t>
+          <t>07-12-2022 01:16:03 pm</t>
         </is>
       </c>
     </row>
@@ -232,30 +232,25 @@
     <row r="12" spans="1:7">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B12" s="0">
-        <v>5517</v>
+        <v>5522</v>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>5 Paz y Respeto a la Ley</t>
+          <t>1 Salud y Vida Digna</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022</t>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>aa</t>
+          <t>Calificación crediticia de la Entidad | Calificación crediticia de la Entidad | Calificación crediticia de la Entidad</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>Supuesto</t>
         </is>
       </c>
       <c r="G12" s="0" t="inlineStr">
@@ -271,26 +266,27 @@
         </is>
       </c>
       <c r="B13" s="0">
-        <v>5517</v>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>5 Paz y Respeto a la Ley</t>
+        <v>6445</v>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>Monto de los recursos subastados a través del Portal web público TEST</t>
+          <t>Indicador B | Indicador A</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>a | A</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>Actividad ESZ Test 1</t>
         </is>
       </c>
       <c r="G13" s="0" t="inlineStr">
@@ -306,26 +302,27 @@
         </is>
       </c>
       <c r="B14" s="0">
-        <v>5517</v>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>5 Paz y Respeto a la Ley</t>
+        <v>6445</v>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje test</t>
+          <t>Indicador hija 1 SF</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>123</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>Actividad ESZ Test 1</t>
         </is>
       </c>
       <c r="G14" s="0" t="inlineStr">
@@ -341,26 +338,27 @@
         </is>
       </c>
       <c r="B15" s="0">
-        <v>5517</v>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>5 Paz y Respeto a la Ley</t>
+        <v>6445</v>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>Monto de los recursos subastados a través del Portal web público TEST</t>
+          <t>Indicador hija SF 2</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>456</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>Actividad ESZ Test 1</t>
         </is>
       </c>
       <c r="G15" s="0" t="inlineStr">
@@ -370,27 +368,22 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>Componente</t>
-        </is>
-      </c>
       <c r="B16" s="0">
-        <v>5522</v>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>1 Salud y Vida Digna</t>
-        </is>
+        <v>6441</v>
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>Calificación crediticia de la Entidad</t>
+          <t>Indicador hija SF 2 | Indicador hija SF 2 | Indicador hija SF 2</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>456 | 456 | 456</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>Supuesto</t>
+          <t>Actividad hija SF 2</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
@@ -415,12 +408,12 @@
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>Monto de los recursos subastados a través del Portal web público TEST</t>
+          <t>Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>123 | 123 | 123</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
@@ -429,6 +422,56 @@
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B18" s="0">
+        <v>5517</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>5 Paz y Respeto a la Ley</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje test</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>aa | aa | aa | aa | aa | aa | aa | aa | aa | aa | aa | aaa</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" s="0">
+        <v>6425</v>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>Actividad padre 1 SF</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
         </is>

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -188,7 +188,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>07-12-2022 01:16:03 pm</t>
+          <t>07-12-2022 05:55:03 pm</t>
         </is>
       </c>
     </row>
@@ -262,31 +262,30 @@
     <row r="13" spans="1:7">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B13" s="0">
-        <v>6445</v>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
+        <v>6454</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>5 Paz y Respeto a la Ley</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>Indicador B | Indicador A</t>
+          <t>INDICADOR AGLOMERADO 4 HIJA</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>a | A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test 1</t>
+          <t>ACTIVIDAD AGLOMERADO 4 HIJA</t>
         </is>
       </c>
       <c r="G13" s="0" t="inlineStr">
@@ -298,31 +297,30 @@
     <row r="14" spans="1:7">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B14" s="0">
-        <v>6445</v>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
+        <v>6453</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>Indicador hija 1 SF</t>
+          <t>INDICADOR PADRE AGLOMERADO 4</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test 1</t>
+          <t>ACTIVIDAD AGLOMERADO 4</t>
         </is>
       </c>
       <c r="G14" s="0" t="inlineStr">
@@ -338,27 +336,26 @@
         </is>
       </c>
       <c r="B15" s="0">
-        <v>6445</v>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
+        <v>5529</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>2 Educación, Cultura y Deporte</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>Indicador hija SF 2</t>
+          <t>Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>123 | 123 | 123</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test 1</t>
+          <t>Aprovechar los recursos propios</t>
         </is>
       </c>
       <c r="G15" s="0" t="inlineStr">
@@ -368,22 +365,22 @@
       </c>
     </row>
     <row r="16" spans="1:7">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
       <c r="B16" s="0">
-        <v>6441</v>
-      </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t>Indicador hija SF 2 | Indicador hija SF 2 | Indicador hija SF 2</t>
-        </is>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>456 | 456 | 456</t>
+        <v>6449</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>Actividad hija SF 2</t>
+          <t>Actividad Ejemplo Sin Nada Nuevo</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
@@ -395,30 +392,20 @@
     <row r="17" spans="1:7">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B17" s="0">
-        <v>5529</v>
+        <v>6450</v>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>2 Educación, Cultura y Deporte</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="inlineStr">
-        <is>
-          <t>Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST</t>
-        </is>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>123 | 123 | 123</t>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>Aprovechar los recursos propios</t>
+          <t>Actividad Prueba EJE</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
@@ -430,30 +417,20 @@
     <row r="18" spans="1:7">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B18" s="0">
-        <v>5517</v>
+        <v>6451</v>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>5 Paz y Respeto a la Ley</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje test</t>
-        </is>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>aa | aa | aa | aa | aa | aa | aa | aa | aa | aa | aa | aaa</t>
+          <t>6 Gobierno Ciudadano</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>ACTIVIDAD POA SF</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
@@ -463,12 +440,22 @@
       </c>
     </row>
     <row r="19" spans="1:7">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
       <c r="B19" s="0">
-        <v>6425</v>
+        <v>6452</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>1 Salud y Vida Digna</t>
+        </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>Actividad padre 1 SF</t>
+          <t>ACTIVIDAD AGLOMERADO 3</t>
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -188,7 +188,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>07-12-2022 05:55:03 pm</t>
+          <t>07-12-2022 06:29:59 pm</t>
         </is>
       </c>
     </row>
@@ -459,6 +459,31 @@
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B20" s="0">
+        <v>6457</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 5 PADRE</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
         </is>

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -43,8 +43,13 @@
       <b/>
       <i/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -61,6 +66,11 @@
         <fgColor rgb="FFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -73,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
@@ -81,6 +91,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -188,7 +199,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>07-12-2022 06:29:59 pm</t>
+          <t>07-12-2022 08:46:53 pm</t>
         </is>
       </c>
     </row>
@@ -230,65 +241,66 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="0" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>Componente</t>
         </is>
       </c>
-      <c r="B12" s="0">
+      <c r="B12" s="5">
         <v>5522</v>
       </c>
-      <c r="C12" s="0" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>1 Salud y Vida Digna</t>
         </is>
       </c>
-      <c r="D12" s="0" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Calificación crediticia de la Entidad | Calificación crediticia de la Entidad | Calificación crediticia de la Entidad</t>
         </is>
       </c>
-      <c r="F12" s="0" t="inlineStr">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Supuesto</t>
         </is>
       </c>
-      <c r="G12" s="0" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>Componente</t>
-        </is>
-      </c>
-      <c r="B13" s="0">
-        <v>6454</v>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>5 Paz y Respeto a la Ley</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>INDICADOR AGLOMERADO 4 HIJA</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD AGLOMERADO 4 HIJA</t>
-        </is>
-      </c>
-      <c r="G13" s="0" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B13" s="5">
+        <v>6457</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>INDICADOR AGLOMERADO PADRE 5 2 | INDICADOR AGLOMERADO PADRE 5</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>AA | MEDIO PADRE</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 5 PADRE</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
         </is>
@@ -301,16 +313,17 @@
         </is>
       </c>
       <c r="B14" s="0">
-        <v>6453</v>
+        <v>6457</v>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>6 Gobierno Ciudadano</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>INDICADOR PADRE AGLOMERADO 4</t>
+          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>[6458,6460,6454]-ACTIVIDAD AGLOMERADO 5 HIJA 2
+</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
@@ -320,7 +333,7 @@
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>ACTIVIDAD AGLOMERADO 4</t>
+          <t>ACTIVIDAD AGLOMERADO 5 PADRE</t>
         </is>
       </c>
       <c r="G14" s="0" t="inlineStr">
@@ -332,30 +345,30 @@
     <row r="15" spans="1:7">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B15" s="0">
-        <v>5529</v>
+        <v>6457</v>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>2 Educación, Cultura y Deporte</t>
+          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST</t>
+          <t>[6458,6460,6454]-INDICADOR AGLOMERADO HIJA 2</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>123 | 123 | 123</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>Aprovechar los recursos propios</t>
+          <t>ACTIVIDAD AGLOMERADO 5 PADRE</t>
         </is>
       </c>
       <c r="G15" s="0" t="inlineStr">
@@ -365,25 +378,35 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>Componente</t>
-        </is>
-      </c>
-      <c r="B16" s="0">
-        <v>6449</v>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
-        </is>
-      </c>
-      <c r="F16" s="0" t="inlineStr">
-        <is>
-          <t>Actividad Ejemplo Sin Nada Nuevo</t>
-        </is>
-      </c>
-      <c r="G16" s="0" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B16" s="5">
+        <v>6459</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>INDICADOR PADRE 6</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 6 PADRE</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
         </is>
@@ -392,20 +415,30 @@
     <row r="17" spans="1:7">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B17" s="0">
-        <v>6450</v>
+        <v>6459</v>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>[6458,6460,6454]-INDICADOR HIJA 6</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>MEDIO HIJA</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>Actividad Prueba EJE</t>
+          <t>ACTIVIDAD AGLOMERADO 6 PADRE</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
@@ -415,25 +448,35 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="B18" s="0">
-        <v>6451</v>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B18" s="5">
+        <v>6453</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>6 Gobierno Ciudadano</t>
         </is>
       </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD POA SF</t>
-        </is>
-      </c>
-      <c r="G18" s="0" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>INDICADOR PADRE AGLOMERADO 4</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 4</t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
         </is>
@@ -446,44 +489,172 @@
         </is>
       </c>
       <c r="B19" s="0">
+        <v>6453</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>[6458,6460,6454]-INDICADOR AGLOMERADO 4 HIJA</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 4</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B20" s="5">
+        <v>5529</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>2 Educación, Cultura y Deporte</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>123 | 123 | 123</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>Aprovechar los recursos propios</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B21" s="5">
+        <v>6449</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+        </is>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>Actividad Ejemplo Sin Nada Nuevo</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B22" s="5">
+        <v>6450</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+        </is>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>Actividad Prueba EJE</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B23" s="5">
+        <v>6451</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD POA SF</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B24" s="5">
         <v>6452</v>
       </c>
-      <c r="C19" s="0" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>1 Salud y Vida Digna</t>
         </is>
       </c>
-      <c r="F19" s="0" t="inlineStr">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>ACTIVIDAD AGLOMERADO 3</t>
         </is>
       </c>
-      <c r="G19" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="B20" s="0">
-        <v>6457</v>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
-        </is>
-      </c>
-      <c r="F20" s="0" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD AGLOMERADO 5 PADRE</t>
-        </is>
-      </c>
-      <c r="G20" s="0" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
         </is>

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -68,7 +68,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC000"/>
+        <fgColor rgb="FFD9A8"/>
       </patternFill>
     </fill>
   </fills>
@@ -199,7 +199,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>07-12-2022 08:46:53 pm</t>
+          <t>07-12-2022 09:10:04 pm</t>
         </is>
       </c>
     </row>
@@ -322,7 +322,7 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>[6458,6460,6454]-ACTIVIDAD AGLOMERADO 5 HIJA 2
+          <t>ACTIVIDAD AGLOMERADO 5 HIJA 2
 </t>
         </is>
       </c>
@@ -358,7 +358,7 @@
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>[6458,6460,6454]-INDICADOR AGLOMERADO HIJA 2</t>
+          <t>INDICADOR AGLOMERADO HIJA 2</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
@@ -428,7 +428,7 @@
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>[6458,6460,6454]-INDICADOR HIJA 6</t>
+          <t>INDICADOR HIJA 6</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>[6458,6460,6454]-INDICADOR AGLOMERADO 4 HIJA</t>
+          <t>INDICADOR AGLOMERADO 4 HIJA</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -43,8 +43,13 @@
       <b/>
       <i/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -61,6 +66,11 @@
         <fgColor rgb="FFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9A8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -73,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
@@ -81,6 +91,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -97,6 +108,11 @@
           <t>Organismo</t>
         </is>
       </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
           <t>REPORTE MIR</t>
@@ -183,7 +199,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>07-19-2022 12:52:25 pm</t>
+          <t>09-19-2022 02:24:36 pm</t>
         </is>
       </c>
     </row>
@@ -225,100 +241,101 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B12" s="0">
-        <v>4974</v>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de etapas concluidas del aplicativo web para el arrendamiento de inmuebles con respecto al total de etapas propuestas para el portal web para el arrendamiento de inmuebles</t>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>Bitácora digital de avances del proyecto</t>
-        </is>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t>Proporcionar una plataforma web del AJOD y del Estadio Corregidora para el mes de diciembre del presente.</t>
-        </is>
-      </c>
-      <c r="G12" s="0" t="inlineStr">
-        <is>
-          <t>Oficialía Mayor</t>
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B12" s="5">
+        <v>5522</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>1 Salud y Vida Digna</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>Calificación crediticia de la Entidad | Calificación crediticia de la Entidad | Calificación crediticia de la Entidad</t>
+        </is>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>Supuesto</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B13" s="0">
-        <v>4976</v>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de etapas concluidas de la implentación de la plataforma digital con Total de etapas para la implementación de la plataforma digital</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>Bitácora digital de avances del proyecto</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
-        <is>
-          <t>Cumplir para el mes de noviembre con las adecuaciones solicitadas por la Dirección de Adquisiciones</t>
-        </is>
-      </c>
-      <c r="G13" s="0" t="inlineStr">
-        <is>
-          <t>Oficialía Mayor</t>
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B13" s="5">
+        <v>6454</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>5 Paz y Respeto a la Ley</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>INDICADOR AGLOMERADO 4 HIJA</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 4 HIJA</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>Componente</t>
-        </is>
-      </c>
-      <c r="B14" s="0">
-        <v>5522</v>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>1 Salud y Vida Digna</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>Calificación crediticia de la Entidad</t>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>Supuesto</t>
-        </is>
-      </c>
-      <c r="G14" s="0" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B14" s="5">
+        <v>6457</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>INDICADOR AGLOMERADO PADRE 5 | INDICADOR AGLOMERADO PADRE 5 2</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>MEDIO PADRE | AA</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 5 PADRE</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
         </is>
@@ -327,30 +344,31 @@
     <row r="15" spans="1:7">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B15" s="0">
-        <v>5529</v>
+        <v>6457</v>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>2 Educación, Cultura y Deporte</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>Monto de los recursos subastados a través del Portal web público TEST</t>
+          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 5 HIJA 2
+</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>Aprovechar los recursos propios</t>
+          <t>ACTIVIDAD AGLOMERADO 5 PADRE</t>
         </is>
       </c>
       <c r="G15" s="0" t="inlineStr">
@@ -375,12 +393,12 @@
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>INDICADOR AGLOMERADO PADRE 5</t>
+          <t>INDICADOR AGLOMERADO HIJA 2</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>MEDIO PADRE</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
@@ -395,36 +413,35 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="0" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>Fin</t>
         </is>
       </c>
-      <c r="B17" s="0">
-        <v>6458</v>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD AGLOMERADO 5 HIJA 2
-</t>
-        </is>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F17" s="0" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD AGLOMERADO 5 HIJA</t>
-        </is>
-      </c>
-      <c r="G17" s="0" t="inlineStr">
+      <c r="B17" s="5">
+        <v>6459</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>INDICADOR PADRE 6</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 6 PADRE</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
         </is>
@@ -433,70 +450,70 @@
     <row r="18" spans="1:7">
       <c r="A18" s="0" t="inlineStr">
         <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B18" s="0">
+        <v>6459</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>INDICADOR HIJA 6</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>MEDIO HIJA</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 6 PADRE</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
           <t>Actividad</t>
         </is>
       </c>
-      <c r="B18" s="0">
+      <c r="B19" s="5">
         <v>6461</v>
       </c>
-      <c r="C18" s="0" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>1.1 Ampliación e incremento del acceso a los servicios de salud para la ciudadanía. </t>
         </is>
       </c>
-      <c r="D18" s="0" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Indicador 7 padre</t>
         </is>
       </c>
-      <c r="E18" s="0" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>eqwe</t>
         </is>
       </c>
-      <c r="F18" s="0" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>ACTIVIDAD AGLOMERADO 7 PADRE</t>
         </is>
       </c>
-      <c r="G18" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B19" s="0">
-        <v>5889</v>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>6.1.1.1 Fortalecer la transparencia institucional y el acceso a la información.</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de supervisiones realizadas con respecto al total de supervisiones programadas para los Órganos Internos de Control</t>
-        </is>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>Minutas de trabajo de las Supervisiones realizadas a los Órganos Internos de Control</t>
-        </is>
-      </c>
-      <c r="F19" s="0" t="inlineStr">
-        <is>
-          <t>Los Órganos Internos  de Control entregan la información y soportes documentales para la Supervisión.</t>
-        </is>
-      </c>
-      <c r="G19" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de la Contraloría</t>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
     </row>
@@ -507,31 +524,198 @@
         </is>
       </c>
       <c r="B20" s="0">
-        <v>5893</v>
+        <v>6461</v>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>6.1.1.1 Fortalecer la transparencia institucional y el acceso a la información.</t>
+          <t>1.1 Ampliación e incremento del acceso a los servicios de salud para la ciudadanía. </t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma, con respecto al total de servidores públicos obligados</t>
+          <t>AGLOMERADO 7 HIJA</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>Aplicación WEB SEMOD (Seguimiento de movimientos y declaraciones) y Padrón de Servidores Públicos Obligados</t>
+          <t>aaa</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>Los servidores públicos del Poder Ejecutivo del Estado de Querétaro conocen la obligación de dar cumplimiento a la presentación de la declaración de modificación de situación patrimonial y de interés de inicio y/o conclusión, así como la fecha límite de presentación. El sistema informático para la presentación de la declaración de modificación de situación patrimonial y de intereses, tiene las condiciones tecnológicas cubiertas. </t>
+          <t>ACTIVIDAD AGLOMERADO 7 PADRE</t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de la Contraloría</t>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B21" s="0">
+        <v>6461</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>1.1 Ampliación e incremento del acceso a los servicios de salud para la ciudadanía. </t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>AGLOMERADO 7 HIJA 2</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 7 PADRE</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B22" s="5">
+        <v>5529</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>2 Educación, Cultura y Deporte</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>123 | 123 | 123</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>Aprovechar los recursos propios</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B23" s="5">
+        <v>6450</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>Prueba Acumulativo | Prueba Acumulativo | Prueba Acumulativo | Prueba Acumulativo | Prueba Acumulativo | Prueba Acumulativo</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>1 | 1 | 1 | 1 | 1 | 1</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>Actividad Prueba EJE</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B24" s="5">
+        <v>6449</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>Prueba | Prueba | Prueba | Prueba | Prueba | Prueba | Tipo 1 | Tipo 1 | Prueba | Prueba | Prueba | Prueba | Test | Prueba | Test | Prueba | Prueba | Prueba | Prueba | Prueba | Prueba | Prueba | Prueba | Prueba</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>Actividad Ejemplo Sin Nada Nuevo</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B25" s="5">
+        <v>6451</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD POA SF</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
     </row>

--- a/public/reportes/mirBD.xlsx
+++ b/public/reportes/mirBD.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -42,6 +42,11 @@
       <name val="Calibri"/>
       <b/>
       <i/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -83,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
@@ -92,6 +97,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -199,7 +207,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>09-19-2022 02:24:36 pm</t>
+          <t>09-19-2022 04:04:06 pm</t>
         </is>
       </c>
     </row>
@@ -243,7 +251,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B12" s="5">
@@ -251,7 +259,7 @@
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>1 Salud y Vida Digna</t>
+          <t>6.2 Fomentar finanzas públicas sanas</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
@@ -259,10 +267,14 @@
           <t>Calificación crediticia de la Entidad | Calificación crediticia de la Entidad | Calificación crediticia de la Entidad</t>
         </is>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>. | . | .</t>
+        </is>
+      </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
-          <t>Supuesto</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G12" s="5" t="inlineStr">
@@ -274,30 +286,30 @@
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B13" s="5">
-        <v>6454</v>
+        <v>5523</v>
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>5 Paz y Respeto a la Ley</t>
+          <t>6.2 Fomentar finanzas públicas sanas</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>INDICADOR AGLOMERADO 4 HIJA</t>
+          <t>Calificación crediticia de la Entidad | Calificación crediticia de la Entidad | Calificación crediticia de la Entidad</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>. | . | .</t>
         </is>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>ACTIVIDAD AGLOMERADO 4 HIJA</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G13" s="5" t="inlineStr">
@@ -309,30 +321,30 @@
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>Fin</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B14" s="5">
-        <v>6457</v>
+        <v>5525</v>
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
+          <t>6.2 Fomentar finanzas públicas sanas</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>INDICADOR AGLOMERADO PADRE 5 | INDICADOR AGLOMERADO PADRE 5 2</t>
+          <t>Calificación crediticia de la Entidad | Calificación crediticia de la Entidad | Calificación crediticia de la Entidad</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>MEDIO PADRE | AA</t>
+          <t>. | . | .</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>ACTIVIDAD AGLOMERADO 5 PADRE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G14" s="5" t="inlineStr">
@@ -342,71 +354,70 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="B15" s="0">
-        <v>6457</v>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD AGLOMERADO 5 HIJA 2
-</t>
-        </is>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD AGLOMERADO 5 PADRE</t>
-        </is>
-      </c>
-      <c r="G15" s="0" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="B15" s="5">
+        <v>5526</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>6.2 Fomentar finanzas públicas sanas</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>Calificación crediticia de la Entidad | Calificación crediticia de la Entidad | Calificación crediticia de la Entidad</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>. | . | .</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="B16" s="0">
-        <v>6457</v>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t>INDICADOR AGLOMERADO HIJA 2</t>
-        </is>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F16" s="0" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD AGLOMERADO 5 PADRE</t>
-        </is>
-      </c>
-      <c r="G16" s="0" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="B16" s="5">
+        <v>5524</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>6.2 Fomentar finanzas públicas sanas</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>Calificación crediticia de la Entidad | Calificación crediticia de la Entidad | Calificación crediticia de la Entidad | Calificación crediticia de la Entidad</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>. | . | . | .</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
         </is>
@@ -415,30 +426,31 @@
     <row r="17" spans="1:7">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>Fin</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B17" s="5">
-        <v>6459</v>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>6 Gobierno Ciudadano</t>
+        <v>5543</v>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>6.2.3.1 Consolidar el Sistema de Evaluación del Desempeño.
+</t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>INDICADOR PADRE 6</t>
+          <t>Calificación promedio que otorgan las y los Enlaces a los procesos y formatos elaborados por la UESED | Calificación promedio que otorgan las y los Enlaces a los procesos y formatos elaborados por la UESED | Calificación promedio que otorgan las y los Enlaces a los procesos y formatos elaborados por la UESED | Calificación promedio que otorgan las y los Enlaces a los procesos y formatos elaborados por la UESED | Calificación promedio que otorgan las y los Enlaces a los procesos y formatos elaborados por la UESED | Calificación promedio que otorgan las y los Enlaces a los procesos y formatos elaborados por la UESED | Calificación promedio que otorgan las y los Enlaces a los procesos y formatos elaborados por la UESED | Calificación promedio que otorgan las y los Enlaces a los procesos y formatos elaborados por la UESED | Calificación promedio que otorgan las y los Enlaces a los procesos y formatos elaborados por la UESED | Calificación promedio que otorgan las y los Enlaces a los procesos y formatos elaborados por la UESED | Calificación promedio que otorgan las y los Enlaces a los procesos y formatos elaborados por la UESED | Calificación promedio que otorgan las y los Enlaces a los procesos y formatos elaborados por la UESED | Calificación promedio que otorgan las y los Enlaces a los procesos y formatos elaborados por la UESED</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>*Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>ACTIVIDAD AGLOMERADO 6 PADRE</t>
+          <t>Los procesos y formatos elaborados por la UESED son de utilidad para las y los enlaces GpR para eficientar sus labores </t>
         </is>
       </c>
       <c r="G17" s="5" t="inlineStr">
@@ -448,35 +460,36 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="B18" s="0">
-        <v>6459</v>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>6 Gobierno Ciudadano</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t>INDICADOR HIJA 6</t>
-        </is>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>MEDIO HIJA</t>
-        </is>
-      </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD AGLOMERADO 6 PADRE</t>
-        </is>
-      </c>
-      <c r="G18" s="0" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B18" s="5">
+        <v>5544</v>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>6.2.3.1 Consolidar el Sistema de Evaluación del Desempeño.
+</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>Calificación promedio que otorgan las y los participantes en las encuestas de satisfacción a las capacitaciones, cursos y talleres realizados en materia de GpR, PbR y SED por la UESED | Calificación promedio que otorgan las y los participantes en las encuestas de satisfacción a las capacitaciones, cursos y talleres realizados en materia de GpR, PbR y SED por la UESED | Calificación promedio que otorgan las y los participantes en las encuestas de satisfacción a las capacitaciones, cursos y talleres realizados en materia de GpR, PbR y SED por la UESED | Calificación promedio que otorgan las y los participantes en las encuestas de satisfacción a las capacitaciones, cursos y talleres realizados en materia de GpR, PbR y SED por la UESED | Calificación promedio que otorgan las y los participantes en las encuestas de satisfacción a las capacitaciones, cursos y talleres realizados en materia de GpR, PbR y SED por la UESED | Calificación promedio que otorgan las y los participantes en las encuestas de satisfacción a las capacitaciones, cursos y talleres realizados en materia de GpR, PbR y SED por la UESED | Calificación promedio que otorgan las y los participantes en las encuestas de satisfacción a las capacitaciones, cursos y talleres realizados en materia de GpR, PbR y SED por la UESED | Calificación promedio que otorgan las y los participantes en las encuestas de satisfacción a las capacitaciones, cursos y talleres realizados en materia de GpR, PbR y SED por la UESED | Calificación promedio que otorgan las y los participantes en las encuestas de satisfacción a las capacitaciones, cursos y talleres realizados en materia de GpR, PbR y SED por la UESED | Calificación promedio que otorgan las y los participantes en las encuestas de satisfacción a las capacitaciones, cursos y talleres realizados en materia de GpR, PbR y SED por la UESED | Calificación promedio que otorgan las y los participantes en las encuestas de satisfacción a las capacitaciones, cursos y talleres realizados en materia de GpR, PbR y SED por la UESED</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>*Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica | *Encuestas - formulario google *Informe de resultados *Carpeta digital - evidencia fotografica</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>Las capacitaciones, cursos y talleres impartidos por la UESED fortalecen los conocimientos y habilidades de las y los enlaces GpR </t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
         </is>
@@ -489,26 +502,28 @@
         </is>
       </c>
       <c r="B19" s="5">
-        <v>6461</v>
+        <v>5531</v>
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>1.1 Ampliación e incremento del acceso a los servicios de salud para la ciudadanía. </t>
+          <t>6.2.1.1 Implementar nuevas modalidades integrales de recaudación.</t>
         </is>
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>Indicador 7 padre</t>
+          <t>Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>eqwe</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD AGLOMERADO 7 PADRE</t>
+          <t>PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>*Medidas ineficaces para controlar la inflación.
+*Afectaciones en las cadenas de suministros por conflictos globales
+*Afectación global por regreso de Pandemía (por mutación o variante de COVID-19)</t>
         </is>
       </c>
       <c r="G19" s="5" t="inlineStr">
@@ -518,70 +533,70 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B20" s="0">
-        <v>6461</v>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>1.1 Ampliación e incremento del acceso a los servicios de salud para la ciudadanía. </t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="inlineStr">
-        <is>
-          <t>AGLOMERADO 7 HIJA</t>
-        </is>
-      </c>
-      <c r="E20" s="0" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="F20" s="0" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD AGLOMERADO 7 PADRE</t>
-        </is>
-      </c>
-      <c r="G20" s="0" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B20" s="5">
+        <v>5527</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>6.2.1.1 Implementar nuevas modalidades integrales de recaudación.</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público | Monto de los recursos subastados a través del Portal web público | Monto de los recursos subastados a través del Portal web público</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>. | . | .</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>La ciudadanía se encuentra interesada en adquirir los bienes muebles subastados</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B21" s="0">
-        <v>6461</v>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>1.1 Ampliación e incremento del acceso a los servicios de salud para la ciudadanía. </t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="inlineStr">
-        <is>
-          <t>AGLOMERADO 7 HIJA 2</t>
-        </is>
-      </c>
-      <c r="E21" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F21" s="0" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD AGLOMERADO 7 PADRE</t>
-        </is>
-      </c>
-      <c r="G21" s="0" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B21" s="5">
+        <v>5528</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>6.2.1.1 Implementar nuevas modalidades integrales de recaudación.</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público | Monto de los recursos subastados a través del Portal web público | Monto de los recursos subastados a través del Portal web público</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>. | . | .</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>La ciudadanía se encuentra interesada en adquirir los bienes muebles subastados</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
         </is>
@@ -598,22 +613,22 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>2 Educación, Cultura y Deporte</t>
+          <t>6.2.1.1 Implementar nuevas modalidades integrales de recaudación.</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST</t>
+          <t>Monto de los recursos subastados a través del Portal web público | Monto de los recursos subastados a través del Portal web público | Monto de los recursos subastados a través del Portal web público</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>123 | 123 | 123</t>
+          <t>. | . | .</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>Aprovechar los recursos propios</t>
+          <t>La ciudadanía se encuentra interesada en adquirir los bienes muebles subastados</t>
         </is>
       </c>
       <c r="G22" s="5" t="inlineStr">
@@ -625,30 +640,30 @@
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B23" s="5">
-        <v>6450</v>
+        <v>5530</v>
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+          <t>6.2.1.1 Implementar nuevas modalidades integrales de recaudación.</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>Prueba Acumulativo | Prueba Acumulativo | Prueba Acumulativo | Prueba Acumulativo | Prueba Acumulativo | Prueba Acumulativo</t>
+          <t>Monto de los recursos subastados a través del Portal web público | Monto de los recursos subastados a través del Portal web público | Monto de los recursos subastados a través del Portal web público</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>1 | 1 | 1 | 1 | 1 | 1</t>
+          <t>. | . | .</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>Actividad Prueba EJE</t>
+          <t>La ciudadanía se encuentra interesada en adquirir los bienes muebles subastados</t>
         </is>
       </c>
       <c r="G23" s="5" t="inlineStr">
@@ -660,30 +675,30 @@
     <row r="24" spans="1:7">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B24" s="5">
-        <v>6449</v>
+        <v>5505</v>
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>Prueba | Prueba | Prueba | Prueba | Prueba | Prueba | Tipo 1 | Tipo 1 | Prueba | Prueba | Prueba | Prueba | Test | Prueba | Test | Prueba | Prueba | Prueba | Prueba | Prueba | Prueba | Prueba | Prueba | Prueba</t>
+          <t>Porcentaje de avance en la habilitación de la Autoridad certificadora respecto del total de etapas programadas | Porcentaje de avance en la habilitación de la Autoridad certificadora respecto del total de etapas programadas | Porcentaje de avance en la habilitación de la Autoridad certificadora respecto del total de etapas programadas | Porcentaje de avance en la habilitación de la Autoridad certificadora respecto del total de etapas programadas</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1 | 1</t>
+          <t>. | . | . | .</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>Actividad Ejemplo Sin Nada Nuevo</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G24" s="5" t="inlineStr">
@@ -695,25 +710,837 @@
     <row r="25" spans="1:7">
       <c r="A25" s="5" t="inlineStr">
         <is>
-          <t>Fin</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B25" s="5">
-        <v>6451</v>
+        <v>5507</v>
       </c>
       <c r="C25" s="5" t="inlineStr">
         <is>
-          <t>6 Gobierno Ciudadano</t>
-        </is>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>Porcentaje de certificaciones emitidas respecto del total identificadas en el personal de  la Secretaría de Finanzas | Porcentaje de certificaciones emitidas respecto del total identificadas en el personal de  la Secretaría de Finanzas | Porcentaje de certificaciones emitidas respecto del total identificadas en el personal de  la Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>. | . | .</t>
+        </is>
+      </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>ACTIVIDAD POA SF</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B26" s="5">
+        <v>5513</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>6.1.4.3 Potenciar el desarrollo de competencias digitales en los ciudadanos, las empresas y los servidores públicos.</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>Porcentaje de documentos normativos de TI modificados o creados respecto del total identificados que requieren actualización | Porcentaje de documentos normativos de TI modificados o creados respecto del total identificados que requieren actualización | Porcentaje de documentos normativos de TI modificados o creados respecto del total identificados que requieren actualización | Porcentaje de documentos normativos de TI modificados o creados respecto del total identificados que requieren actualización | Porcentaje de documentos normativos de TI modificados o creados respecto del total identificados que requieren actualización | Porcentaje de documentos normativos de TI modificados o creados respecto del total identificados que requieren actualización | Porcentaje de documentos normativos de TI modificados o creados respecto del total identificados que requieren actualización | Porcentaje de documentos normativos de TI modificados o creados respecto del total identificados que requieren actualización | Porcentaje de documentos normativos de TI modificados o creados respecto del total identificados que requieren actualización | Porcentaje de documentos normativos de TI modificados o creados respecto del total identificados que requieren actualización | Porcentaje de documentos normativos de TI modificados o creados respecto del total identificados que requieren actualización | Porcentaje de documentos normativos de TI modificados o creados respecto del total identificados que requieren actualización</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>• Lineamientos para la emisión de dictámenes técnicos actualizado | • Lineamientos para la emisión de dictámenes técnicos actualizado | • Lineamientos para la emisión de dictámenes técnicos actualizado | • Lineamientos para la emisión de dictámenes técnicos actualizado | • Lineamientos para la emisión de dictámenes técnicos actualizado | • Lineamientos para la emisión de dictámenes técnicos actualizado | • Lineamientos para la emisión de dictámenes técnicos actualizado | • Lineamientos para la emisión de dictámenes técnicos actualizado | • Lineamientos para la emisión de dictámenes técnicos actualizado | • Lineamientos para la emisión de dictámenes técnicos actualizado | • Lineamientos para la emisión de dictámenes técnicos actualizado | • Lineamientos para la emisión de dictámenes técnicos actualizado</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>Validaciones de las diversas áreas jurídicas del Poder Ejecutivo</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B27" s="5">
+        <v>5518</v>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>6.2.2.3 Implementar controles del ejercicio de los recursos estatales y federales.
+</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>Porcentaje de etapas realizadas en la elaboración y aprobación de la ley respecto del total de etapas proyectadas | Porcentaje de etapas realizadas en la elaboración y aprobación de la ley respecto del total de etapas proyectadas | Porcentaje de etapas realizadas en la elaboración y aprobación de la ley respecto del total de etapas proyectadas | Porcentaje de etapas realizadas en la elaboración y aprobación de la ley respecto del total de etapas proyectadas | Porcentaje de etapas realizadas en la elaboración y aprobación de la ley respecto del total de etapas proyectadas | Porcentaje de etapas realizadas en la elaboración y aprobación de la ley respecto del total de etapas proyectadas | Porcentaje de etapas realizadas en la elaboración y aprobación de la ley respecto del total de etapas proyectadas</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>. | . | . | . | . | . | .</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B28" s="5">
+        <v>5541</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>6.2.1 Fortalecer la generación y el manejo de ingresos propios. </t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>Porcentaje de Impuestos respecto del total de Ingresos Propios | Porcentaje de Impuestos respecto del total de Ingresos Propios | Porcentaje de Impuestos respecto del total de Ingresos Propios | Porcentaje de Impuestos respecto del total de Ingresos Propios | Porcentaje de Impuestos respecto del total de Ingresos Propios | Porcentaje de Impuestos respecto del total de Ingresos Propios | Porcentaje de Impuestos respecto del total de Ingresos Propios | Porcentaje de Impuestos respecto del total de Ingresos Propios | Porcentaje de Impuestos respecto del total de Ingresos Propios</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de actividades del 01 al 31 de  mayo de 2022 | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de actividades del 01 al 31 de  mayo de 2022 | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de actividades del 01 al 31 de  mayo de 2022 | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de actividades del 01 al 31 de  mayo de 2022 | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de actividades del 01 al 31 de  mayo de 2022 | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de actividades del 01 al 31 de  mayo de 2022 | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de actividades del 01 al 31 de  mayo de 2022 | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de actividades del 01 al 31 de  mayo de 2022 | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de actividades del 01 al 31 de  mayo de 2022</t>
+        </is>
+      </c>
+      <c r="F28" s="6" t="inlineStr">
+        <is>
+          <t>*Medidas ineficaces para controlar la inflación.
+*Afectaciones en las cadenas de suministros por conflictos globales
+*Afectación global por regreso de Pandemía (por mutación o variante de COVID-19)</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B29" s="5">
+        <v>5542</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>6.2.1 Fortalecer la generación y el manejo de ingresos propios. </t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>Porcentaje de Impuestos respecto del total de Ingresos Propios | Porcentaje de Impuestos respecto del total de Ingresos Propios | Porcentaje de Impuestos respecto del total de Ingresos Propios | Porcentaje de Impuestos respecto del total de Ingresos Propios | Porcentaje de Impuestos respecto del total de Ingresos Propios | Porcentaje de Impuestos respecto del total de Ingresos Propios | Porcentaje de Impuestos respecto del total de Ingresos Propios | Porcentaje de Impuestos respecto del total de Ingresos Propios | Porcentaje de Impuestos respecto del total de Ingresos Propios | Porcentaje de Impuestos respecto del total de Ingresos Propios | Porcentaje de Impuestos respecto del total de Ingresos Propios</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de actividades del 01 al 31 de  mayo de 2022 | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de actividades del 01 al 31 de  mayo de 2022 | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de actividades del 01 al 31 de  mayo de 2022 | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de actividades del 01 al 31 de  mayo de 2022 | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de actividades del 01 al 31 de  mayo de 2022 | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de actividades del 01 al 31 de  mayo de 2022 | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de actividades del 01 al 31 de  mayo de 2022 | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de actividades del 01 al 31 de  mayo de 2022 | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de actividades del 01 al 31 de  mayo de 2022 | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de actividades del 01 al 31 de  mayo de 2022 | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de actividades del 01 al 31 de  mayo de 2022</t>
+        </is>
+      </c>
+      <c r="F29" s="6" t="inlineStr">
+        <is>
+          <t>*Medidas ineficaces para controlar la inflación.
+*Afectaciones en las cadenas de suministros por conflictos globales
+*Afectación global por regreso de Pandemía (por mutación o variante de COVID-19)
+</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B30" s="5">
+        <v>5545</v>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>6.2.3.2 Instrumentación de informes de la evaluación del desempeño.
+</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>Porcentaje de indicadores de desempeño revisados con respecto al total de indicadores de desempeño de PbR | Porcentaje de indicadores de desempeño revisados con respecto al total de indicadores de desempeño de PbR | Porcentaje de indicadores de desempeño revisados con respecto al total de indicadores de desempeño de PbR | Porcentaje de indicadores de desempeño revisados con respecto al total de indicadores de desempeño de PbR | Porcentaje de indicadores de desempeño revisados con respecto al total de indicadores de desempeño de PbR | Porcentaje de indicadores de desempeño revisados con respecto al total de indicadores de desempeño de PbR</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>*Calendario de auditorías *Ficha técnica de auditoría por indicador revisado  *Pliegos de observaciones de auditoría por Dependencia/organismo | *Calendario de auditorías *Ficha técnica de auditoría por indicador revisado  *Pliegos de observaciones de auditoría por Dependencia/organismo | *Calendario de auditorías *Ficha técnica de auditoría por indicador revisado  *Pliegos de observaciones de auditoría por Dependencia/organismo | *Calendario de auditorías *Ficha técnica de auditoría por indicador revisado  *Pliegos de observaciones de auditoría por Dependencia/organismo | *Calendario de auditorías *Ficha técnica de auditoría por indicador revisado  *Pliegos de observaciones de auditoría por Dependencia/organismo | *Calendario de auditorías *Ficha técnica de auditoría por indicador revisado  *Pliegos de observaciones de auditoría por Dependencia/organismo</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>Las y los enlaces GpR cuentan con sus medios de verificación en órden para la revisión</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B31" s="5">
+        <v>5533</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>6.2.1.1 Implementar nuevas modalidades integrales de recaudación.</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de Actividades | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de Actividades | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de Actividades | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de Actividades | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de Actividades | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de Actividades | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de Actividades | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de Actividades | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de Actividades | PEEQ Informe Ingresos por periodo del Sistema Financiero *Estado de Actividades</t>
+        </is>
+      </c>
+      <c r="F31" s="6" t="inlineStr">
+        <is>
+          <t>*Que se mantengan los calendarios de ingresos federales en el margen esperado
+*Que las medidas de seguimitento, apoyo y control de obligaciones matengan los niveles de cumplimiento en la recaudación
+*Que los factores globales económicos y de salud mantengan un escenario estable durante el periodo.
+</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B32" s="5">
+        <v>5536</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>6.2.1.1 Implementar nuevas modalidades integrales de recaudación.</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero</t>
+        </is>
+      </c>
+      <c r="F32" s="6" t="inlineStr">
+        <is>
+          <t>*Que se mantengan los calendarios de ingresos federales en el margen esperado
+*Que las medidas de seguimitento, apoyo y control de obligaciones matengan los niveles de cumplimiento en la recaudación
+*Que los factores globales económicos y de salud mantengan un escenario estable durante el periodo.
+</t>
+        </is>
+      </c>
+      <c r="G32" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B33" s="5">
+        <v>5537</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>6.2.1.1 Implementar nuevas modalidades integrales de recaudación.</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero</t>
+        </is>
+      </c>
+      <c r="F33" s="6" t="inlineStr">
+        <is>
+          <t>*Que se mantengan los calendarios de ingresos federales en el margen esperado
+*Que las medidas de seguimitento, apoyo y control de obligaciones matengan los niveles de cumplimiento en la recaudación
+*Que los factores globales económicos y de salud mantengan un escenario estable durante el periodo.</t>
+        </is>
+      </c>
+      <c r="G33" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B34" s="5">
+        <v>5534</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>6.2.1.1 Implementar nuevas modalidades integrales de recaudación.</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero</t>
+        </is>
+      </c>
+      <c r="F34" s="6" t="inlineStr">
+        <is>
+          <t>*Que se mantengan los calendarios de ingresos federales en el margen esperado
+*Que las medidas de seguimitento, apoyo y control de obligaciones matengan los niveles de cumplimiento en la recaudación
+*Que los factores globales económicos y de salud mantengan un escenario estable durante el periodo.
+</t>
+        </is>
+      </c>
+      <c r="G34" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B35" s="5">
+        <v>5535</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>6.2.1.1 Implementar nuevas modalidades integrales de recaudación.</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados | Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero | PEEQ Informe Ingresos por periodo del Sistema Financiero</t>
+        </is>
+      </c>
+      <c r="F35" s="6" t="inlineStr">
+        <is>
+          <t>Que se mantengan los calendarios de ingresos federales en el margen esperado
+*Que las medidas de seguimitento, apoyo y control de obligaciones matengan los niveles de cumplimiento en la recaudación
+*Que los factores globales económicos y de salud mantengan un escenario estable durante el periodo.
+</t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B36" s="5">
+        <v>5538</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>6.2.1.2 Facilitar el pago de obligaciones fiscales a los contribuyentes.</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales | Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales | Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales | Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales | Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales | Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales | Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales | Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales | Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales | Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>*Extracción de Información del Sistema de Recaudación  | *Extracción de Información del Sistema de Recaudación  | *Extracción de Información del Sistema de Recaudación  | *Extracción de Información del Sistema de Recaudación  | *Extracción de Información del Sistema de Recaudación  | *Extracción de Información del Sistema de Recaudación  | *Extracción de Información del Sistema de Recaudación  | *Extracción de Información del Sistema de Recaudación  | *Extracción de Información del Sistema de Recaudación  | *Extracción de Información del Sistema de Recaudación </t>
+        </is>
+      </c>
+      <c r="F36" s="6" t="inlineStr">
+        <is>
+          <t>*La ciudadanía se encuentra interesada en realizar sus trámites por medio de medios digitales
+*Suspención de Medios Alternos de cobro por incumplimiento, en la entrega de información, retardo en el pago de la recaudación.
+*Adicion de opciones de Medios Alternos de Cobro a los ya Existentes.</t>
+        </is>
+      </c>
+      <c r="G36" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B37" s="5">
+        <v>5540</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>6.2.1.2 Facilitar el pago de obligaciones fiscales a los contribuyentes.</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales | Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales | Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales | Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales | Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales | Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales | Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales | Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales | Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales | Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="inlineStr">
+        <is>
+          <t>Extracción de Información del Sistema de Recaudación | Extracción de Información del Sistema de Recaudación | Extracción de Información del Sistema de Recaudación | Extracción de Información del Sistema de Recaudación | Extracción de Información del Sistema de Recaudación | Extracción de Información del Sistema de Recaudación | Extracción de Información del Sistema de Recaudación | Extracción de Información del Sistema de Recaudación | Extracción de Información del Sistema de Recaudación | Extracción de Información del Sistema de Recaudación</t>
+        </is>
+      </c>
+      <c r="F37" s="6" t="inlineStr">
+        <is>
+          <t>*La ciudadanía se encuentra interesada en realizar sus trámites por medio de medios digitales
+*Suspención de Medios Alternos de cobro por incumplimiento, en la entrega de información, retardo en el pago de la recaudación.
+*Adicion de opciones de Medios Alternos de Cobro a los ya Existentes.</t>
+        </is>
+      </c>
+      <c r="G37" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B38" s="5">
+        <v>5511</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>Porcentaje de kilómetros actualizados respecto del total identificados | Porcentaje de kilómetros actualizados respecto del total identificados | Porcentaje de kilómetros actualizados respecto del total identificados | Porcentaje de kilómetros actualizados respecto del total identificados | Porcentaje de kilómetros actualizados respecto del total identificados | Porcentaje de kilómetros actualizados respecto del total identificados</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="inlineStr">
+        <is>
+          <t>. | . | . | . | . | .</t>
+        </is>
+      </c>
+      <c r="F38" s="5" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="G38" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B39" s="5">
+        <v>5515</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>6.2.1.2 Facilitar el pago de obligaciones fiscales a los contribuyentes.</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>Documento de Planeación Estrategica Anual 2022 Matríz de pruebas Anexo técnico del Sistema | Documento de Planeación Estrategica Anual 2022 Matríz de pruebas Anexo técnico del Sistema | Documento de Planeación Estrategica Anual 2022 Matríz de pruebas Anexo técnico del Sistema | Documento de Planeación Estrategica Anual 2022 Matríz de pruebas Anexo técnico del Sistema | Documento de Planeación Estrategica Anual 2022 Matríz de pruebas Anexo técnico del Sistema | Documento de Planeación Estrategica Anual 2022 Matríz de pruebas Anexo técnico del Sistema | Documento de Planeación Estrategica Anual 2022 Matríz de pruebas Anexo técnico del Sistema | Documento de Planeación Estrategica Anual 2022 Matríz de pruebas Anexo técnico del Sistema | Documento de Planeación Estrategica Anual 2022 Matríz de pruebas Anexo técnico del Sistema</t>
+        </is>
+      </c>
+      <c r="F39" s="6" t="inlineStr">
+        <is>
+          <t>Tiempos de Contratación de proyecto
+Entrega de información por areas usuarias
+Validación y aprobación de producto por areas usuarias</t>
+        </is>
+      </c>
+      <c r="G39" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B40" s="5">
+        <v>5517</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>6.2.1.2 Facilitar el pago de obligaciones fiscales a los contribuyentes.</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="inlineStr">
+        <is>
+          <t>Documento de Planeación Estrategica Anual 2022 Matríz de pruebas Anexo técnico del Sistema | Documento de Planeación Estrategica Anual 2022 Matríz de pruebas Anexo técnico del Sistema | Documento de Planeación Estrategica Anual 2022 Matríz de pruebas Anexo técnico del Sistema | Documento de Planeación Estrategica Anual 2022 Matríz de pruebas Anexo técnico del Sistema | Documento de Planeación Estrategica Anual 2022 Matríz de pruebas Anexo técnico del Sistema | Documento de Planeación Estrategica Anual 2022 Matríz de pruebas Anexo técnico del Sistema | Documento de Planeación Estrategica Anual 2022 Matríz de pruebas Anexo técnico del Sistema | Documento de Planeación Estrategica Anual 2022 Matríz de pruebas Anexo técnico del Sistema | Documento de Planeación Estrategica Anual 2022 Matríz de pruebas Anexo técnico del Sistema | Documento de Planeación Estrategica Anual 2022 Matríz de pruebas Anexo técnico del Sistema | Documento de Planeación Estrategica Anual 2022 Matríz de pruebas Anexo técnico del Sistema</t>
+        </is>
+      </c>
+      <c r="F40" s="6" t="inlineStr">
+        <is>
+          <t>Tiempos de Contratación de proyecto
+Entrega de información por areas usuarias
+Validación y aprobación de producto por areas usuarias</t>
+        </is>
+      </c>
+      <c r="G40" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B41" s="5">
+        <v>5516</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>6.2.1.2 Facilitar el pago de obligaciones fiscales a los contribuyentes.</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022</t>
+        </is>
+      </c>
+      <c r="E41" s="5" t="inlineStr">
+        <is>
+          <t>Tiempos de Contratación de proyecto Entrega de información por areas usuarias Validación y aprobación de producto por areas usuarias | Tiempos de Contratación de proyecto Entrega de información por areas usuarias Validación y aprobación de producto por areas usuarias | Tiempos de Contratación de proyecto Entrega de información por areas usuarias Validación y aprobación de producto por areas usuarias | Tiempos de Contratación de proyecto Entrega de información por areas usuarias Validación y aprobación de producto por areas usuarias | Tiempos de Contratación de proyecto Entrega de información por areas usuarias Validación y aprobación de producto por areas usuarias | Tiempos de Contratación de proyecto Entrega de información por areas usuarias Validación y aprobación de producto por areas usuarias | Tiempos de Contratación de proyecto Entrega de información por areas usuarias Validación y aprobación de producto por areas usuarias | Tiempos de Contratación de proyecto Entrega de información por areas usuarias Validación y aprobación de producto por areas usuarias | Tiempos de Contratación de proyecto Entrega de información por areas usuarias Validación y aprobación de producto por areas usuarias | Tiempos de Contratación de proyecto Entrega de información por areas usuarias Validación y aprobación de producto por areas usuarias | Tiempos de Contratación de proyecto Entrega de información por areas usuarias Validación y aprobación de producto por areas usuarias</t>
+        </is>
+      </c>
+      <c r="F41" s="6" t="inlineStr">
+        <is>
+          <t>Tiempos de Contratación de proyecto
+Entrega de información por areas usuarias
+Validación y aprobación de producto por areas usuarias</t>
+        </is>
+      </c>
+      <c r="G41" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B42" s="5">
+        <v>5512</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>6.1.4.3 Potenciar el desarrollo de competencias digitales en los ciudadanos, las empresas y los servidores públicos.</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
+        <is>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos | Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos | Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos | Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos | Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos | Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos | Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos | Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos | Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos | Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos | Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos | Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos | Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos | Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos | Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos | Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
+      <c r="E42" s="5" t="inlineStr">
+        <is>
+          <t>Documento de Planeación Estrategica Anual 2022 Publicación de la Ley de Gobierno Digital del Estado de Querétaro en la Sombra de Artega del 20 de Mayo de 2022 | Documento de Planeación Estrategica Anual 2022 Publicación de la Ley de Gobierno Digital del Estado de Querétaro en la Sombra de Artega del 20 de Mayo de 2022 | Documento de Planeación Estrategica Anual 2022 Publicación de la Ley de Gobierno Digital del Estado de Querétaro en la Sombra de Artega del 20 de Mayo de 2022 | Documento de Planeación Estrategica Anual 2022 Publicación de la Ley de Gobierno Digital del Estado de Querétaro en la Sombra de Artega del 20 de Mayo de 2022 | Documento de Planeación Estrategica Anual 2022 Publicación de la Ley de Gobierno Digital del Estado de Querétaro en la Sombra de Artega del 20 de Mayo de 2022 | Documento de Planeación Estrategica Anual 2022 Publicación de la Ley de Gobierno Digital del Estado de Querétaro en la Sombra de Artega del 20 de Mayo de 2022 | Documento de Planeación Estrategica Anual 2022 Publicación de la Ley de Gobierno Digital del Estado de Querétaro en la Sombra de Artega del 20 de Mayo de 2022 | Documento de Planeación Estrategica Anual 2022 Publicación de la Ley de Gobierno Digital del Estado de Querétaro en la Sombra de Artega del 20 de Mayo de 2022 | Documento de Planeación Estrategica Anual 2022 Publicación de la Ley de Gobierno Digital del Estado de Querétaro en la Sombra de Artega del 20 de Mayo de 2022 | Documento de Planeación Estrategica Anual 2022 Publicación de la Ley de Gobierno Digital del Estado de Querétaro en la Sombra de Artega del 20 de Mayo de 2022 | Documento de Planeación Estrategica Anual 2022 Publicación de la Ley de Gobierno Digital del Estado de Querétaro en la Sombra de Artega del 20 de Mayo de 2022 | Documento de Planeación Estrategica Anual 2022 Publicación de la Ley de Gobierno Digital del Estado de Querétaro en la Sombra de Artega del 20 de Mayo de 2022 | Documento de Planeación Estrategica Anual 2022 Publicación de la Ley de Gobierno Digital del Estado de Querétaro en la Sombra de Artega del 20 de Mayo de 2022 | Documento de Planeación Estrategica Anual 2022 Publicación de la Ley de Gobierno Digital del Estado de Querétaro en la Sombra de Artega del 20 de Mayo de 2022 | Documento de Planeación Estrategica Anual 2022 Publicación de la Ley de Gobierno Digital del Estado de Querétaro en la Sombra de Artega del 20 de Mayo de 2022 | Documento de Planeación Estrategica Anual 2022 Publicación de la Ley de Gobierno Digital del Estado de Querétaro en la Sombra de Artega del 20 de Mayo de 2022</t>
+        </is>
+      </c>
+      <c r="F42" s="5" t="inlineStr">
+        <is>
+          <t>Tiempo de contratación de los proveedores    </t>
+        </is>
+      </c>
+      <c r="G42" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B43" s="5">
+        <v>5519</v>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>6.2.2.2 Optimizar el ejercicio del gasto público.
+</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
+        <is>
+          <t>Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar | Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar | Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar</t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="inlineStr">
+        <is>
+          <t>. | . | .</t>
+        </is>
+      </c>
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="G43" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B44" s="5">
+        <v>5520</v>
+      </c>
+      <c r="C44" s="6" t="inlineStr">
+        <is>
+          <t>6.2.2.2 Optimizar el ejercicio del gasto público.
+</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="inlineStr">
+        <is>
+          <t>Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar | Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar | Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar</t>
+        </is>
+      </c>
+      <c r="E44" s="5" t="inlineStr">
+        <is>
+          <t>. | . | .</t>
+        </is>
+      </c>
+      <c r="F44" s="5" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="G44" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B45" s="5">
+        <v>5521</v>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>6.2.2.2 Optimizar el ejercicio del gasto público.
+</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
+        <is>
+          <t>Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar | Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar | Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar</t>
+        </is>
+      </c>
+      <c r="E45" s="5" t="inlineStr">
+        <is>
+          <t>. | . | .</t>
+        </is>
+      </c>
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="G45" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B46" s="5">
+        <v>5508</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>6.1.4.3 Potenciar el desarrollo de competencias digitales en los ciudadanos, las empresas y los servidores públicos.</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>Sumatoria de aplicaciones de la firma electrónica en los procesos identificados de la Secretaría de Finanzas | Sumatoria de aplicaciones de la firma electrónica en los procesos identificados de la Secretaría de Finanzas | Sumatoria de aplicaciones de la firma electrónica en los procesos identificados de la Secretaría de Finanzas | Sumatoria de aplicaciones de la firma electrónica en los procesos identificados de la Secretaría de Finanzas | Sumatoria de aplicaciones de la firma electrónica en los procesos identificados de la Secretaría de Finanzas | Sumatoria de aplicaciones de la firma electrónica en los procesos identificados de la Secretaría de Finanzas | Sumatoria de aplicaciones de la firma electrónica en los procesos identificados de la Secretaría de Finanzas | Sumatoria de aplicaciones de la firma electrónica en los procesos identificados de la Secretaría de Finanzas | Sumatoria de aplicaciones de la firma electrónica en los procesos identificados de la Secretaría de Finanzas | Sumatoria de aplicaciones de la firma electrónica en los procesos identificados de la Secretaría de Finanzas | Sumatoria de aplicaciones de la firma electrónica en los procesos identificados de la Secretaría de Finanzas | Sumatoria de aplicaciones de la firma electrónica en los procesos identificados de la Secretaría de Finanzas | Sumatoria de aplicaciones de la firma electrónica en los procesos identificados de la Secretaría de Finanzas | Sumatoria de aplicaciones de la firma electrónica en los procesos identificados de la Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t>. | . | . | . | . | . | . | . | . | . | . | . | . | .</t>
+        </is>
+      </c>
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="G46" s="5" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B47" s="5">
+        <v>5510</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
+        <is>
+          <t>Sumatoria de Consultas a la página web de Catastro  | Sumatoria de Consultas a la página web de Catastro  | Sumatoria de Consultas a la página web de Catastro  | Sumatoria de Consultas a la página web de Catastro  | Sumatoria de Consultas a la página web de Catastro  | Sumatoria de Consultas a la página web de Catastro  | Sumatoria de Consultas a la página web de Catastro  | Sumatoria de Consultas a la página web de Catastro  | Sumatoria de Consultas a la página web de Catastro  | Sumatoria de Consultas a la página web de Catastro  | Sumatoria de Consultas a la página web de Catastro  | Sumatoria de Consultas a la página web de Catastro  | Sumatoria de Consultas a la página web de Catastro </t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="inlineStr">
+        <is>
+          <t>*Reporte - Google analytics *Reporte de sesiones a las aplicaciones web  | *Reporte - Google analytics *Reporte de sesiones a las aplicaciones web  | *Reporte - Google analytics *Reporte de sesiones a las aplicaciones web  | *Reporte - Google analytics *Reporte de sesiones a las aplicaciones web  | *Reporte - Google analytics *Reporte de sesiones a las aplicaciones web  | *Reporte - Google analytics *Reporte de sesiones a las aplicaciones web  | *Reporte - Google analytics *Reporte de sesiones a las aplicaciones web  | *Reporte - Google analytics *Reporte de sesiones a las aplicaciones web  | *Reporte - Google analytics *Reporte de sesiones a las aplicaciones web  | *Reporte - Google analytics *Reporte de sesiones a las aplicaciones web  | *Reporte - Google analytics *Reporte de sesiones a las aplicaciones web  | *Reporte - Google analytics *Reporte de sesiones a las aplicaciones web  | *Reporte - Google analytics *Reporte de sesiones a las aplicaciones web </t>
+        </is>
+      </c>
+      <c r="F47" s="5" t="inlineStr">
+        <is>
+          <t>Se promueve la difusión de la página web de la Dirección de Catastro para consulta de la ciudadanía</t>
+        </is>
+      </c>
+      <c r="G47" s="5" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
         </is>
